--- a/Project Management Resources/Big Data Bootcamp WBS.xlsx
+++ b/Project Management Resources/Big Data Bootcamp WBS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danielle Spring\Documents\GitHub\Final Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danielle Spring\Documents\GitHub\Final-Project-SunshineList\Project Management Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA253F9F-1501-45BB-AA12-31FBEC24F0DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D50DBC-3186-48D0-B691-1C6F1562998C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Name" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="143">
   <si>
     <t>Past Due</t>
   </si>
@@ -107,9 +107,6 @@
     <t>Obtain concensus on project topic</t>
   </si>
   <si>
-    <t>Source dataset</t>
-  </si>
-  <si>
     <t>In progress</t>
   </si>
   <si>
@@ -176,9 +173,6 @@
     <t>GitHub</t>
   </si>
   <si>
-    <t>Machine Learning Model</t>
-  </si>
-  <si>
     <t>Dashboard</t>
   </si>
   <si>
@@ -195,9 +189,6 @@
   </si>
   <si>
     <t>4 commits/PR</t>
-  </si>
-  <si>
-    <t>Clean dataset and organize dataset - document process</t>
   </si>
   <si>
     <t>Connection between db and machine learning module</t>
@@ -535,9 +526,6 @@
     <t>Dashboard is published or the submission includes a screen capture video of it in action</t>
   </si>
   <si>
-    <t>01/04  DS- Danielle to prepare initial documentation; tbd team member to vet requirements/dependencies</t>
-  </si>
-  <si>
     <t>Exploritory Analysis</t>
   </si>
   <si>
@@ -643,13 +631,117 @@
     <t>for mock up - use kaggle csv</t>
   </si>
   <si>
-    <t>Create an ERD</t>
-  </si>
-  <si>
-    <t>01/08 DS - Team charter and communication protocols have alignment.  Need to determine role assignment.</t>
-  </si>
-  <si>
-    <t>01/08 DS - preliminary list of questions identified</t>
+    <t>01/12 DS - Charter has been updated and incorporated into ReadMe.
+01/08 DS - Team charter and communication protocols have alignment.  Need to determine role assignment.</t>
+  </si>
+  <si>
+    <t>01/12 DS - WBS has been created and will be used to manage progress of project 
+01/04  DS- Danielle to prepare initial documentation; tbd team member to vet requirements/dependencies</t>
+  </si>
+  <si>
+    <t>01/12 DS - list of questions has been identified and Readme has been updated.
+01/08 DS - preliminary list of questions identified</t>
+  </si>
+  <si>
+    <t>01/12 DS - Initial skeleton of Readme has been drafted.  Lead to be taken over by Shaza.  All updates for sections to be updated by Shaza for document control purposes.</t>
+  </si>
+  <si>
+    <t>01/12 DS - provided overview of project to Sal and Laurel.  Project is a go.</t>
+  </si>
+  <si>
+    <t>01/12 DS - draft readme is being tweaked</t>
+  </si>
+  <si>
+    <t>01/12 DS - all sections are included on draft readme</t>
+  </si>
+  <si>
+    <t>01/12 DS - Charter has been updated and incorporated into ReadMe.</t>
+  </si>
+  <si>
+    <t>01/12 DS - main branch created and repo shared with team</t>
+  </si>
+  <si>
+    <t>Name List that will optimize models accuracy without overfitting</t>
+  </si>
+  <si>
+    <t>01/12 DS - draft ERD has been created from PostgreSQL…will be vetting with team and creating in quickdatabasediagrams.com (Links to an external site.)</t>
+  </si>
+  <si>
+    <t>01/12 DS - review of Sunshine list data ….commenced documenting cleansing sets and figuring out sequence.  Focus is on cleansing the "First Name" column, secondary focus will be on "Job Title"</t>
+  </si>
+  <si>
+    <t>for mock up - use Stats Can data</t>
+  </si>
+  <si>
+    <t>01/13 DS - team to work on importing dataset into SQL.  currently receiving import errors
+01/12 DS - team decision to scale back on project. Will be using the kaggle consolidated csv 1996-2019 and add 2020 published sunshine list - webscraping for sunshine list on hold until team can assess if there is sufficient time to complete</t>
+  </si>
+  <si>
+    <t>01/13 DS - team to work on importing dataset into SQL.  currently receiving import errors</t>
+  </si>
+  <si>
+    <t>01/13 DS - datasets have been sourced</t>
+  </si>
+  <si>
+    <t>01/13 - need to provide an aggregated First Names list for gender identification</t>
+  </si>
+  <si>
+    <t>Other boosting/sampling techniques to further optimize accuracy</t>
+  </si>
+  <si>
+    <t>01/13 - draft presentation has been created and posted to shared google drive
+01/12 - presented project topic at 01/12 class to Sal and Laurel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/13 - have made preliminary decisions on technologies to be used.  </t>
+  </si>
+  <si>
+    <t>Source dataset - Sunshine list, Stats Can for SQL db</t>
+  </si>
+  <si>
+    <t>Source dataset - Twitter for MongoDb</t>
+  </si>
+  <si>
+    <t>01/12 DS - Shaza has obtained developer API access from twitter</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Clean dataset and organize dataset - document process for SQL</t>
+  </si>
+  <si>
+    <t>Clean dataset and organize dataset - document process for MongoDb</t>
+  </si>
+  <si>
+    <t>Create an ERD for SQL</t>
+  </si>
+  <si>
+    <t>Draft Network Architecture</t>
+  </si>
+  <si>
+    <t>01/12 DS - network architecture has been drafted and included in Readme</t>
+  </si>
+  <si>
+    <t>01/12 DS - adding Machine Learning info to Readme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add Machine Learning part </t>
+  </si>
+  <si>
+    <t>Add Machine Learning part to the presentation</t>
+  </si>
+  <si>
+    <t>Machine Learning Model - Gender</t>
+  </si>
+  <si>
+    <t>Machine Learning Model - Sentiment</t>
+  </si>
+  <si>
+    <t>01/12 - Model has been trained using male/female libraries in NLTK</t>
+  </si>
+  <si>
+    <t>`</t>
   </si>
 </sst>
 </file>
@@ -949,7 +1041,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -1183,251 +1275,14 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="145">
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="155">
     <dxf>
       <font>
         <color theme="0" tint="-0.34998626667073579"/>
@@ -1467,116 +1322,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FFC00000"/>
       </font>
       <fill>
@@ -1604,16 +1349,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FFC00000"/>
       </font>
       <fill>
@@ -1641,76 +1376,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FFC00000"/>
       </font>
       <fill>
@@ -1743,6 +1408,524 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB9B9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE593"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB9B9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE593"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB9B9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE593"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB9B9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE593"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2988,13 +3171,13 @@
   <sheetPr published="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H148"/>
+  <dimension ref="A1:H162"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="11" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="11" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomRight" activeCell="A52" sqref="A52:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.7265625" defaultRowHeight="14.5"/>
@@ -3038,7 +3221,7 @@
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
       <c r="H3" s="31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="5" customFormat="1" ht="15.5">
@@ -3050,7 +3233,7 @@
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
       <c r="H4" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="5" customFormat="1" ht="12">
@@ -3090,7 +3273,7 @@
       </c>
       <c r="C8" s="56">
         <f ca="1">TODAY()</f>
-        <v>44571</v>
+        <v>44574</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="22"/>
@@ -3107,7 +3290,7 @@
       </c>
       <c r="C9" s="57">
         <f ca="1">C8+5</f>
-        <v>44576</v>
+        <v>44579</v>
       </c>
       <c r="D9" s="26"/>
       <c r="E9" s="22"/>
@@ -3138,10 +3321,10 @@
         <v>6</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G11" s="34" t="s">
         <v>7</v>
@@ -3163,112 +3346,112 @@
     </row>
     <row r="13" spans="1:8" s="12" customFormat="1">
       <c r="B13" s="38" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C13" s="49">
         <v>44570</v>
       </c>
       <c r="D13" s="39"/>
       <c r="E13" s="40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13" s="39"/>
       <c r="G13" s="39"/>
       <c r="H13" s="41"/>
     </row>
-    <row r="14" spans="1:8" ht="29">
+    <row r="14" spans="1:8" ht="43.5">
       <c r="B14" s="42" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C14" s="50">
         <v>44565</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F14" s="42"/>
       <c r="G14" s="42"/>
       <c r="H14" s="44" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="B15" s="42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="50">
         <v>44565</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" s="42"/>
       <c r="G15" s="42"/>
       <c r="H15" s="44"/>
     </row>
-    <row r="16" spans="1:8" ht="29">
+    <row r="16" spans="1:8" ht="43.5">
       <c r="B16" s="42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="50">
         <v>44566</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F16" s="42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G16" s="42"/>
       <c r="H16" s="44" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="50">
         <v>44566</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F17" s="42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G17" s="42"/>
       <c r="H17" s="44"/>
     </row>
     <row r="18" spans="2:8" ht="29">
       <c r="B18" s="42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="50">
         <v>44567</v>
       </c>
       <c r="D18" s="43" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E18" s="42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F18" s="42"/>
       <c r="G18" s="42"/>
       <c r="H18" s="44" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="2:8">
@@ -3279,39 +3462,41 @@
         <v>44567</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F19" s="42"/>
       <c r="G19" s="42"/>
       <c r="H19" s="44" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="26">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="29">
       <c r="B20" s="42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="50">
         <v>44567</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="42"/>
+        <v>22</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>21</v>
+      </c>
       <c r="G20" s="42"/>
       <c r="H20" s="44" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="2:8" s="12" customFormat="1">
       <c r="B21" s="38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="49">
         <v>44570</v>
@@ -3322,54 +3507,58 @@
       <c r="G21" s="41"/>
       <c r="H21" s="41"/>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" ht="29">
       <c r="B22" s="42" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C22" s="50">
         <v>44568</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="E22" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="G22" s="42"/>
-      <c r="H22" s="44"/>
+      <c r="H22" s="44" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="42" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C23" s="50">
         <v>44568</v>
       </c>
       <c r="D23" s="43" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E23" s="42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F23" s="42"/>
       <c r="G23" s="42"/>
       <c r="H23" s="44" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="2:8" s="12" customFormat="1">
       <c r="B24" s="38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" s="49">
         <v>44571</v>
       </c>
       <c r="D24" s="39"/>
       <c r="E24" s="40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F24" s="41"/>
       <c r="G24" s="41"/>
@@ -3377,22 +3566,28 @@
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="60" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C25" s="50">
         <v>44571</v>
       </c>
-      <c r="D25" s="43"/>
+      <c r="D25" s="43" t="s">
+        <v>96</v>
+      </c>
       <c r="E25" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="42"/>
+        <v>21</v>
+      </c>
+      <c r="F25" s="42" t="s">
+        <v>21</v>
+      </c>
       <c r="G25" s="42"/>
-      <c r="H25" s="44"/>
+      <c r="H25" s="44" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="26" spans="2:8" s="12" customFormat="1">
       <c r="B26" s="38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" s="49">
         <v>44570</v>
@@ -3405,50 +3600,70 @@
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="42" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C27" s="50">
         <v>44568</v>
       </c>
-      <c r="D27" s="43"/>
+      <c r="D27" s="43" t="s">
+        <v>16</v>
+      </c>
       <c r="E27" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="44"/>
+        <v>17</v>
+      </c>
+      <c r="F27" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="G27" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="44" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="60" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C28" s="50">
         <v>44570</v>
       </c>
-      <c r="D28" s="43"/>
+      <c r="D28" s="43" t="s">
+        <v>96</v>
+      </c>
       <c r="E28" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="44"/>
+        <v>17</v>
+      </c>
+      <c r="F28" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="G28" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="44" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="60" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C29" s="50">
         <v>44568</v>
       </c>
       <c r="D29" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" s="42"/>
+      <c r="F29" s="42" t="s">
+        <v>101</v>
+      </c>
       <c r="G29" s="42"/>
-      <c r="H29" s="44"/>
+      <c r="H29" s="44" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="42" t="s">
@@ -3457,130 +3672,164 @@
       <c r="C30" s="50">
         <v>44568</v>
       </c>
-      <c r="D30" s="43"/>
+      <c r="D30" s="43" t="s">
+        <v>96</v>
+      </c>
       <c r="E30" s="42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F30" s="42" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G30" s="42"/>
       <c r="H30" s="44"/>
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="60" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31" s="50">
         <v>44568</v>
       </c>
-      <c r="D31" s="43"/>
+      <c r="D31" s="43" t="s">
+        <v>96</v>
+      </c>
       <c r="E31" s="42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F31" s="42" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G31" s="42"/>
-      <c r="H31" s="44"/>
+      <c r="H31" s="44" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="60" t="s">
-        <v>43</v>
+        <v>137</v>
       </c>
       <c r="C32" s="50">
+        <v>44574</v>
+      </c>
+      <c r="D32" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="G32" s="42"/>
+      <c r="H32" s="44" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="50">
         <v>44568</v>
       </c>
-      <c r="D32" s="43"/>
-      <c r="E32" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="G32" s="42"/>
-      <c r="H32" s="44"/>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="50">
-        <v>44569</v>
-      </c>
-      <c r="D33" s="43"/>
+      <c r="D33" s="43" t="s">
+        <v>16</v>
+      </c>
       <c r="E33" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="F33" s="42"/>
+        <v>17</v>
+      </c>
+      <c r="F33" s="42" t="s">
+        <v>103</v>
+      </c>
       <c r="G33" s="42"/>
       <c r="H33" s="44"/>
     </row>
     <row r="34" spans="2:8">
-      <c r="B34" s="60" t="s">
-        <v>45</v>
+      <c r="B34" s="61" t="s">
+        <v>42</v>
       </c>
       <c r="C34" s="50">
         <v>44569</v>
       </c>
-      <c r="D34" s="43"/>
+      <c r="D34" s="43" t="s">
+        <v>16</v>
+      </c>
       <c r="E34" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34" s="42"/>
+        <v>21</v>
+      </c>
+      <c r="F34" s="42" t="s">
+        <v>103</v>
+      </c>
       <c r="G34" s="42"/>
       <c r="H34" s="44"/>
     </row>
     <row r="35" spans="2:8">
       <c r="B35" s="60" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C35" s="50">
         <v>44569</v>
       </c>
-      <c r="D35" s="43"/>
+      <c r="D35" s="43" t="s">
+        <v>16</v>
+      </c>
       <c r="E35" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
+        <v>17</v>
+      </c>
+      <c r="F35" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="G35" s="42" t="s">
+        <v>103</v>
+      </c>
       <c r="H35" s="44"/>
     </row>
     <row r="36" spans="2:8">
       <c r="B36" s="60" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C36" s="50">
         <v>44569</v>
       </c>
-      <c r="D36" s="43"/>
+      <c r="D36" s="43" t="s">
+        <v>16</v>
+      </c>
       <c r="E36" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
+        <v>18</v>
+      </c>
+      <c r="F36" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="G36" s="42" t="s">
+        <v>103</v>
+      </c>
       <c r="H36" s="44"/>
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="60" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C37" s="50">
         <v>44569</v>
       </c>
-      <c r="D37" s="43"/>
+      <c r="D37" s="43" t="s">
+        <v>16</v>
+      </c>
       <c r="E37" s="42" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F37" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="G37" s="42"/>
+        <v>101</v>
+      </c>
+      <c r="G37" s="42" t="s">
+        <v>103</v>
+      </c>
       <c r="H37" s="44"/>
     </row>
     <row r="38" spans="2:8" s="12" customFormat="1">
       <c r="B38" s="38" t="s">
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="C38" s="49">
         <v>44570</v>
@@ -3593,37 +3842,51 @@
     </row>
     <row r="39" spans="2:8" ht="26">
       <c r="B39" s="42" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C39" s="50">
         <v>44569</v>
       </c>
-      <c r="D39" s="43"/>
+      <c r="D39" s="43" t="s">
+        <v>96</v>
+      </c>
       <c r="E39" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="F39" s="42"/>
+        <v>18</v>
+      </c>
+      <c r="F39" s="42" t="s">
+        <v>100</v>
+      </c>
       <c r="G39" s="42"/>
-      <c r="H39" s="44"/>
+      <c r="H39" s="44" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="40" spans="2:8" ht="26">
       <c r="B40" s="42" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C40" s="50">
         <v>44569</v>
       </c>
-      <c r="D40" s="43"/>
+      <c r="D40" s="43" t="s">
+        <v>16</v>
+      </c>
       <c r="E40" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="44"/>
+        <v>18</v>
+      </c>
+      <c r="F40" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="G40" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="H40" s="44" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="41" spans="2:8" s="12" customFormat="1">
       <c r="B41" s="38" t="s">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="C41" s="49">
         <v>44570</v>
@@ -3634,313 +3897,436 @@
       <c r="G41" s="41"/>
       <c r="H41" s="41"/>
     </row>
-    <row r="42" spans="2:8">
+    <row r="42" spans="2:8" ht="26">
       <c r="B42" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="50">
-        <v>44568</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C42" s="50"/>
       <c r="D42" s="43"/>
       <c r="E42" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
+        <v>18</v>
+      </c>
+      <c r="F42" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="G42" s="42" t="s">
+        <v>101</v>
+      </c>
       <c r="H42" s="44"/>
     </row>
-    <row r="43" spans="2:8">
+    <row r="43" spans="2:8" ht="26">
+      <c r="B43" s="42" t="s">
+        <v>85</v>
+      </c>
       <c r="C43" s="50"/>
       <c r="D43" s="43"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
+      <c r="E43" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="G43" s="42" t="s">
+        <v>101</v>
+      </c>
       <c r="H43" s="44"/>
     </row>
-    <row r="44" spans="2:8">
-      <c r="B44" s="60" t="s">
-        <v>110</v>
-      </c>
-      <c r="C44" s="50"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="44"/>
+    <row r="44" spans="2:8" s="12" customFormat="1">
+      <c r="B44" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="49">
+        <v>44570</v>
+      </c>
+      <c r="D44" s="39"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
     </row>
     <row r="45" spans="2:8">
       <c r="B45" s="42" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="C45" s="50">
-        <v>44568</v>
-      </c>
-      <c r="D45" s="43"/>
+        <v>44575</v>
+      </c>
+      <c r="D45" s="43" t="s">
+        <v>16</v>
+      </c>
       <c r="E45" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="F45" s="42"/>
+        <v>19</v>
+      </c>
+      <c r="F45" s="42" t="s">
+        <v>101</v>
+      </c>
       <c r="G45" s="42"/>
-      <c r="H45" s="44"/>
+      <c r="H45" s="44" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="46" spans="2:8">
-      <c r="B46" s="42" t="s">
-        <v>111</v>
+      <c r="B46" s="71" t="s">
+        <v>119</v>
       </c>
       <c r="C46" s="50">
-        <v>44570</v>
-      </c>
-      <c r="D46" s="43"/>
+        <v>44575</v>
+      </c>
+      <c r="D46" s="43" t="s">
+        <v>16</v>
+      </c>
       <c r="E46" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="F46" s="42"/>
+        <v>19</v>
+      </c>
+      <c r="F46" s="42" t="s">
+        <v>101</v>
+      </c>
       <c r="G46" s="42"/>
-      <c r="H46" s="44"/>
-    </row>
-    <row r="47" spans="2:8">
-      <c r="B47" s="42" t="s">
-        <v>87</v>
+      <c r="H46" s="44" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" ht="58">
+      <c r="B47" s="60" t="s">
+        <v>106</v>
       </c>
       <c r="C47" s="50">
-        <v>44568</v>
-      </c>
-      <c r="D47" s="43"/>
+        <v>44575</v>
+      </c>
+      <c r="D47" s="43" t="s">
+        <v>16</v>
+      </c>
       <c r="E47" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="F47" s="42"/>
+        <v>19</v>
+      </c>
+      <c r="F47" s="42" t="s">
+        <v>101</v>
+      </c>
       <c r="G47" s="42"/>
-      <c r="H47" s="44"/>
+      <c r="H47" s="44" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="48" spans="2:8">
       <c r="B48" s="42" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="C48" s="50">
-        <v>44568</v>
-      </c>
-      <c r="D48" s="43"/>
+        <v>44575</v>
+      </c>
+      <c r="D48" s="43" t="s">
+        <v>16</v>
+      </c>
       <c r="E48" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="F48" s="42"/>
+        <v>19</v>
+      </c>
+      <c r="F48" s="42" t="s">
+        <v>103</v>
+      </c>
       <c r="G48" s="42"/>
-      <c r="H48" s="44"/>
-    </row>
-    <row r="49" spans="2:8">
+      <c r="H48" s="44" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="43.5">
       <c r="B49" s="42" t="s">
-        <v>47</v>
+        <v>131</v>
       </c>
       <c r="C49" s="50">
-        <v>44569</v>
-      </c>
-      <c r="D49" s="43"/>
+        <v>44577</v>
+      </c>
+      <c r="D49" s="43" t="s">
+        <v>16</v>
+      </c>
       <c r="E49" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="F49" s="42"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="44"/>
-    </row>
-    <row r="50" spans="2:8" s="12" customFormat="1">
-      <c r="B50" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C50" s="58"/>
-      <c r="D50" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="E50" s="40"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="41"/>
-    </row>
-    <row r="51" spans="2:8" s="12" customFormat="1">
-      <c r="B51" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="C51" s="49">
-        <v>44570</v>
-      </c>
-      <c r="D51" s="39"/>
-      <c r="E51" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="G49" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
+      <c r="H49" s="44" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="C50" s="50">
+        <v>44581</v>
+      </c>
+      <c r="D50" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="E50" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="G50" s="42"/>
+      <c r="H50" s="44"/>
+    </row>
+    <row r="51" spans="2:8" ht="29">
+      <c r="B51" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="C51" s="50">
+        <v>44575</v>
+      </c>
+      <c r="D51" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="G51" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" s="44" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="52" spans="2:8">
-      <c r="B52" s="60" t="s">
-        <v>33</v>
+      <c r="B52" s="42" t="s">
+        <v>83</v>
       </c>
       <c r="C52" s="50">
-        <v>44570</v>
-      </c>
-      <c r="D52" s="43"/>
+        <v>44581</v>
+      </c>
+      <c r="D52" s="43" t="s">
+        <v>16</v>
+      </c>
       <c r="E52" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="F52" s="42"/>
+        <v>19</v>
+      </c>
+      <c r="F52" s="42" t="s">
+        <v>101</v>
+      </c>
       <c r="G52" s="42"/>
       <c r="H52" s="44"/>
     </row>
     <row r="53" spans="2:8">
-      <c r="B53" s="35" t="s">
+      <c r="B53" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" s="50">
+        <v>44575</v>
+      </c>
+      <c r="D53" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="G53" s="42"/>
+      <c r="H53" s="44"/>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" s="50">
+        <v>44575</v>
+      </c>
+      <c r="D54" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="G54" s="42"/>
+      <c r="H54" s="44" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" s="12" customFormat="1">
+      <c r="B55" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" s="58"/>
+      <c r="D55" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E55" s="40"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
+    </row>
+    <row r="56" spans="2:8" s="12" customFormat="1">
+      <c r="B56" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" s="49">
+        <v>44570</v>
+      </c>
+      <c r="D56" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F56" s="41"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="41"/>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="B57" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" s="50">
+        <v>44574</v>
+      </c>
+      <c r="D57" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="E57" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="G57" s="42"/>
+      <c r="H57" s="44" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8">
+      <c r="B58" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="C58" s="50">
+        <v>44573</v>
+      </c>
+      <c r="D58" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="E58" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="G58" s="42"/>
+      <c r="H58" s="44" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" ht="29">
+      <c r="B59" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59" s="50">
+        <v>44570</v>
+      </c>
+      <c r="D59" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="E59" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="F59" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="G59" s="42"/>
+      <c r="H59" s="44" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8">
+      <c r="B60" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="48"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="37"/>
-    </row>
-    <row r="54" spans="2:8" s="12" customFormat="1">
-      <c r="B54" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C54" s="49"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="41"/>
-      <c r="G54" s="41"/>
-      <c r="H54" s="41"/>
-    </row>
-    <row r="55" spans="2:8" ht="91">
-      <c r="B55" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="C55" s="50">
-        <v>44599</v>
-      </c>
-      <c r="D55" s="43"/>
-      <c r="E55" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="F55" s="42"/>
-      <c r="G55" s="42"/>
-      <c r="H55" s="44"/>
-    </row>
-    <row r="56" spans="2:8">
-      <c r="B56" s="69" t="s">
-        <v>91</v>
-      </c>
-      <c r="C56" s="50"/>
-      <c r="D56" s="43"/>
-      <c r="E56" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="F56" s="42"/>
-      <c r="G56" s="42"/>
-      <c r="H56" s="44"/>
-    </row>
-    <row r="57" spans="2:8" s="12" customFormat="1">
-      <c r="B57" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="C57" s="49"/>
-      <c r="D57" s="39"/>
-      <c r="E57" s="40"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="41"/>
-    </row>
-    <row r="58" spans="2:8" ht="52">
-      <c r="B58" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="C58" s="50"/>
-      <c r="D58" s="43"/>
-      <c r="E58" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="F58" s="42"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="44"/>
-    </row>
-    <row r="59" spans="2:8" ht="52">
-      <c r="B59" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="C59" s="50"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="F59" s="42"/>
-      <c r="G59" s="42"/>
-      <c r="H59" s="44"/>
-    </row>
-    <row r="60" spans="2:8">
-      <c r="B60" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="C60" s="50"/>
-      <c r="D60" s="43"/>
-      <c r="E60" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="F60" s="42"/>
-      <c r="G60" s="42"/>
-      <c r="H60" s="44"/>
-    </row>
-    <row r="61" spans="2:8">
-      <c r="B61" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="C61" s="50"/>
-      <c r="D61" s="43"/>
-      <c r="E61" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="F61" s="42"/>
-      <c r="G61" s="42"/>
-      <c r="H61" s="44"/>
-    </row>
-    <row r="62" spans="2:8">
-      <c r="B62" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="C62" s="50"/>
-      <c r="D62" s="43"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="37"/>
+    </row>
+    <row r="61" spans="2:8" s="12" customFormat="1">
+      <c r="B61" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C61" s="49"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="41"/>
+      <c r="H61" s="41"/>
+    </row>
+    <row r="62" spans="2:8" ht="91">
+      <c r="B62" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62" s="50">
+        <v>44581</v>
+      </c>
+      <c r="D62" s="43" t="s">
+        <v>16</v>
+      </c>
       <c r="E62" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="F62" s="42"/>
+      <c r="F62" s="42" t="s">
+        <v>103</v>
+      </c>
       <c r="G62" s="42"/>
       <c r="H62" s="44"/>
     </row>
     <row r="63" spans="2:8">
-      <c r="B63" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="C63" s="50"/>
-      <c r="D63" s="43"/>
+      <c r="B63" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="C63" s="50">
+        <v>44581</v>
+      </c>
+      <c r="D63" s="43" t="s">
+        <v>16</v>
+      </c>
       <c r="E63" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="F63" s="42"/>
+        <v>20</v>
+      </c>
+      <c r="F63" s="42" t="s">
+        <v>103</v>
+      </c>
       <c r="G63" s="42"/>
       <c r="H63" s="44"/>
     </row>
-    <row r="64" spans="2:8" ht="65">
-      <c r="B64" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="C64" s="50"/>
-      <c r="D64" s="43"/>
+    <row r="64" spans="2:8">
+      <c r="B64" s="69" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64" s="50">
+        <v>44585</v>
+      </c>
+      <c r="D64" s="43" t="s">
+        <v>16</v>
+      </c>
       <c r="E64" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="F64" s="42"/>
+        <v>20</v>
+      </c>
+      <c r="F64" s="42" t="s">
+        <v>103</v>
+      </c>
       <c r="G64" s="42"/>
       <c r="H64" s="44"/>
     </row>
     <row r="65" spans="2:8" s="12" customFormat="1">
       <c r="B65" s="38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C65" s="49"/>
       <c r="D65" s="39"/>
@@ -3949,176 +4335,196 @@
       <c r="G65" s="41"/>
       <c r="H65" s="41"/>
     </row>
-    <row r="66" spans="2:8" ht="104">
+    <row r="66" spans="2:8" ht="52">
       <c r="B66" s="42" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="C66" s="50"/>
       <c r="D66" s="43"/>
       <c r="E66" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="F66" s="42"/>
+        <v>20</v>
+      </c>
+      <c r="F66" s="42" t="s">
+        <v>103</v>
+      </c>
       <c r="G66" s="42"/>
       <c r="H66" s="44"/>
     </row>
-    <row r="67" spans="2:8">
-      <c r="B67" s="70" t="s">
-        <v>58</v>
+    <row r="67" spans="2:8" ht="52">
+      <c r="B67" s="42" t="s">
+        <v>51</v>
       </c>
       <c r="C67" s="50"/>
       <c r="D67" s="43"/>
       <c r="E67" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="F67" s="42"/>
+        <v>20</v>
+      </c>
+      <c r="F67" s="42" t="s">
+        <v>103</v>
+      </c>
       <c r="G67" s="42"/>
       <c r="H67" s="44"/>
     </row>
     <row r="68" spans="2:8">
-      <c r="B68" s="70" t="s">
-        <v>60</v>
+      <c r="B68" s="60" t="s">
+        <v>43</v>
       </c>
       <c r="C68" s="50"/>
       <c r="D68" s="43"/>
       <c r="E68" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="F68" s="42"/>
+        <v>17</v>
+      </c>
+      <c r="F68" s="42" t="s">
+        <v>103</v>
+      </c>
       <c r="G68" s="42"/>
       <c r="H68" s="44"/>
     </row>
     <row r="69" spans="2:8">
-      <c r="B69" s="70" t="s">
-        <v>59</v>
+      <c r="B69" s="60" t="s">
+        <v>43</v>
       </c>
       <c r="C69" s="50"/>
       <c r="D69" s="43"/>
       <c r="E69" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="F69" s="42"/>
+        <v>18</v>
+      </c>
+      <c r="F69" s="42" t="s">
+        <v>100</v>
+      </c>
       <c r="G69" s="42"/>
       <c r="H69" s="44"/>
     </row>
-    <row r="70" spans="2:8" s="12" customFormat="1">
-      <c r="B70" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="C70" s="49"/>
-      <c r="D70" s="39"/>
-      <c r="E70" s="40"/>
-      <c r="F70" s="41"/>
-      <c r="G70" s="41"/>
-      <c r="H70" s="41"/>
-    </row>
-    <row r="71" spans="2:8">
-      <c r="B71" s="61" t="s">
-        <v>56</v>
+    <row r="70" spans="2:8">
+      <c r="B70" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="C70" s="50"/>
+      <c r="D70" s="43"/>
+      <c r="E70" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F70" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="G70" s="42"/>
+      <c r="H70" s="44"/>
+    </row>
+    <row r="71" spans="2:8" ht="65">
+      <c r="B71" s="42" t="s">
+        <v>52</v>
       </c>
       <c r="C71" s="50"/>
       <c r="D71" s="43"/>
       <c r="E71" s="42" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F71" s="42"/>
       <c r="G71" s="42"/>
       <c r="H71" s="44"/>
     </row>
-    <row r="72" spans="2:8" ht="26">
-      <c r="B72" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="C72" s="50"/>
-      <c r="D72" s="43"/>
-      <c r="E72" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="F72" s="42"/>
-      <c r="G72" s="42"/>
-      <c r="H72" s="44"/>
-    </row>
-    <row r="73" spans="2:8" ht="26">
-      <c r="B73" s="60" t="s">
-        <v>109</v>
+    <row r="72" spans="2:8" s="12" customFormat="1">
+      <c r="B72" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="C72" s="49"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="40"/>
+      <c r="F72" s="41"/>
+      <c r="G72" s="41"/>
+      <c r="H72" s="41"/>
+    </row>
+    <row r="73" spans="2:8" ht="104">
+      <c r="B73" s="42" t="s">
+        <v>90</v>
       </c>
       <c r="C73" s="50"/>
       <c r="D73" s="43"/>
       <c r="E73" s="42" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F73" s="42"/>
       <c r="G73" s="42"/>
       <c r="H73" s="44"/>
     </row>
     <row r="74" spans="2:8">
-      <c r="B74" s="61" t="s">
-        <v>61</v>
+      <c r="B74" s="42" t="s">
+        <v>116</v>
       </c>
       <c r="C74" s="50"/>
       <c r="D74" s="43"/>
       <c r="E74" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="F74" s="42"/>
+        <v>18</v>
+      </c>
+      <c r="F74" s="42" t="s">
+        <v>100</v>
+      </c>
       <c r="G74" s="42"/>
       <c r="H74" s="44"/>
     </row>
-    <row r="75" spans="2:8" ht="26">
-      <c r="B75" s="61" t="s">
-        <v>62</v>
+    <row r="75" spans="2:8">
+      <c r="B75" s="42" t="s">
+        <v>124</v>
       </c>
       <c r="C75" s="50"/>
       <c r="D75" s="43"/>
       <c r="E75" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="F75" s="42"/>
+        <v>18</v>
+      </c>
+      <c r="F75" s="42" t="s">
+        <v>100</v>
+      </c>
       <c r="G75" s="42"/>
       <c r="H75" s="44"/>
     </row>
     <row r="76" spans="2:8">
-      <c r="B76" s="61" t="s">
-        <v>95</v>
+      <c r="B76" s="70" t="s">
+        <v>55</v>
       </c>
       <c r="C76" s="50"/>
       <c r="D76" s="43"/>
       <c r="E76" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="F76" s="42"/>
+        <v>18</v>
+      </c>
+      <c r="F76" s="42" t="s">
+        <v>100</v>
+      </c>
       <c r="G76" s="42"/>
       <c r="H76" s="44"/>
     </row>
-    <row r="77" spans="2:8" ht="26">
-      <c r="B77" s="61" t="s">
-        <v>93</v>
+    <row r="77" spans="2:8">
+      <c r="B77" s="70" t="s">
+        <v>57</v>
       </c>
       <c r="C77" s="50"/>
       <c r="D77" s="43"/>
       <c r="E77" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="F77" s="42"/>
+        <v>18</v>
+      </c>
+      <c r="F77" s="42" t="s">
+        <v>100</v>
+      </c>
       <c r="G77" s="42"/>
       <c r="H77" s="44"/>
     </row>
     <row r="78" spans="2:8">
-      <c r="B78" s="61" t="s">
-        <v>64</v>
+      <c r="B78" s="70" t="s">
+        <v>56</v>
       </c>
       <c r="C78" s="50"/>
       <c r="D78" s="43"/>
       <c r="E78" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="F78" s="42"/>
+        <v>18</v>
+      </c>
+      <c r="F78" s="42" t="s">
+        <v>100</v>
+      </c>
       <c r="G78" s="42"/>
       <c r="H78" s="44"/>
     </row>
     <row r="79" spans="2:8" s="12" customFormat="1">
       <c r="B79" s="38" t="s">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="C79" s="49"/>
       <c r="D79" s="39"/>
@@ -4127,33 +4533,43 @@
       <c r="G79" s="41"/>
       <c r="H79" s="41"/>
     </row>
-    <row r="80" spans="2:8" ht="52">
-      <c r="B80" s="69" t="s">
-        <v>65</v>
+    <row r="80" spans="2:8" ht="26">
+      <c r="B80" s="42" t="s">
+        <v>84</v>
       </c>
       <c r="C80" s="50"/>
       <c r="D80" s="43"/>
       <c r="E80" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="F80" s="42"/>
-      <c r="G80" s="42"/>
+        <v>18</v>
+      </c>
+      <c r="F80" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="G80" s="42" t="s">
+        <v>101</v>
+      </c>
       <c r="H80" s="44"/>
     </row>
-    <row r="81" spans="2:8">
-      <c r="B81" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="C81" s="48"/>
-      <c r="D81" s="36"/>
-      <c r="E81" s="36"/>
-      <c r="F81" s="36"/>
-      <c r="G81" s="36"/>
-      <c r="H81" s="37"/>
+    <row r="81" spans="2:8" ht="26">
+      <c r="B81" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C81" s="50"/>
+      <c r="D81" s="43"/>
+      <c r="E81" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="F81" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="G81" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="H81" s="44"/>
     </row>
     <row r="82" spans="2:8" s="12" customFormat="1">
       <c r="B82" s="38" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C82" s="49"/>
       <c r="D82" s="39"/>
@@ -4162,84 +4578,100 @@
       <c r="G82" s="41"/>
       <c r="H82" s="41"/>
     </row>
-    <row r="83" spans="2:8" ht="130">
-      <c r="B83" s="42" t="s">
-        <v>66</v>
+    <row r="83" spans="2:8">
+      <c r="B83" s="61" t="s">
+        <v>53</v>
       </c>
       <c r="C83" s="50"/>
       <c r="D83" s="43"/>
-      <c r="E83" s="42"/>
+      <c r="E83" s="42" t="s">
+        <v>19</v>
+      </c>
       <c r="F83" s="42"/>
       <c r="G83" s="42"/>
       <c r="H83" s="44"/>
     </row>
-    <row r="84" spans="2:8">
-      <c r="B84" s="42"/>
+    <row r="84" spans="2:8" ht="26">
+      <c r="B84" s="61" t="s">
+        <v>54</v>
+      </c>
       <c r="C84" s="50"/>
       <c r="D84" s="43"/>
-      <c r="E84" s="42"/>
+      <c r="E84" s="42" t="s">
+        <v>19</v>
+      </c>
       <c r="F84" s="42"/>
       <c r="G84" s="42"/>
       <c r="H84" s="44"/>
     </row>
-    <row r="85" spans="2:8">
-      <c r="B85" s="42"/>
+    <row r="85" spans="2:8" ht="26">
+      <c r="B85" s="60" t="s">
+        <v>105</v>
+      </c>
       <c r="C85" s="50"/>
       <c r="D85" s="43"/>
-      <c r="E85" s="42"/>
+      <c r="E85" s="42" t="s">
+        <v>19</v>
+      </c>
       <c r="F85" s="42"/>
       <c r="G85" s="42"/>
       <c r="H85" s="44"/>
     </row>
-    <row r="86" spans="2:8" s="12" customFormat="1">
-      <c r="B86" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="C86" s="49"/>
-      <c r="D86" s="39"/>
-      <c r="E86" s="40"/>
-      <c r="F86" s="41"/>
-      <c r="G86" s="41"/>
-      <c r="H86" s="41"/>
-    </row>
-    <row r="87" spans="2:8" ht="52">
-      <c r="B87" s="42" t="s">
-        <v>67</v>
+    <row r="86" spans="2:8">
+      <c r="B86" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="C86" s="50"/>
+      <c r="D86" s="43"/>
+      <c r="E86" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F86" s="42"/>
+      <c r="G86" s="42"/>
+      <c r="H86" s="44"/>
+    </row>
+    <row r="87" spans="2:8" ht="26">
+      <c r="B87" s="61" t="s">
+        <v>59</v>
       </c>
       <c r="C87" s="50"/>
       <c r="D87" s="43"/>
-      <c r="E87" s="42"/>
+      <c r="E87" s="42" t="s">
+        <v>19</v>
+      </c>
       <c r="F87" s="42"/>
       <c r="G87" s="42"/>
       <c r="H87" s="44"/>
     </row>
-    <row r="88" spans="2:8" ht="52">
-      <c r="B88" s="42" t="s">
-        <v>69</v>
+    <row r="88" spans="2:8">
+      <c r="B88" s="61" t="s">
+        <v>91</v>
       </c>
       <c r="C88" s="50"/>
       <c r="D88" s="43"/>
-      <c r="E88" s="42"/>
+      <c r="E88" s="42" t="s">
+        <v>19</v>
+      </c>
       <c r="F88" s="42"/>
       <c r="G88" s="42"/>
       <c r="H88" s="44"/>
     </row>
-    <row r="89" spans="2:8">
-      <c r="B89" s="60" t="s">
-        <v>45</v>
+    <row r="89" spans="2:8" ht="26">
+      <c r="B89" s="61" t="s">
+        <v>89</v>
       </c>
       <c r="C89" s="50"/>
       <c r="D89" s="43"/>
       <c r="E89" s="42" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F89" s="42"/>
       <c r="G89" s="42"/>
       <c r="H89" s="44"/>
     </row>
     <row r="90" spans="2:8">
-      <c r="B90" s="60" t="s">
-        <v>45</v>
+      <c r="B90" s="61" t="s">
+        <v>61</v>
       </c>
       <c r="C90" s="50"/>
       <c r="D90" s="43"/>
@@ -4250,69 +4682,65 @@
       <c r="G90" s="42"/>
       <c r="H90" s="44"/>
     </row>
-    <row r="91" spans="2:8">
-      <c r="B91" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="C91" s="50"/>
-      <c r="D91" s="43"/>
-      <c r="E91" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="F91" s="42"/>
-      <c r="G91" s="42"/>
-      <c r="H91" s="44"/>
-    </row>
-    <row r="92" spans="2:8">
-      <c r="B92" s="60" t="s">
-        <v>45</v>
+    <row r="91" spans="2:8" s="12" customFormat="1">
+      <c r="B91" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C91" s="49"/>
+      <c r="D91" s="39"/>
+      <c r="E91" s="40"/>
+      <c r="F91" s="41"/>
+      <c r="G91" s="41"/>
+      <c r="H91" s="41"/>
+    </row>
+    <row r="92" spans="2:8" ht="52">
+      <c r="B92" s="69" t="s">
+        <v>62</v>
       </c>
       <c r="C92" s="50"/>
       <c r="D92" s="43"/>
       <c r="E92" s="42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F92" s="42"/>
       <c r="G92" s="42"/>
       <c r="H92" s="44"/>
     </row>
-    <row r="93" spans="2:8" ht="52">
-      <c r="B93" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="C93" s="50"/>
-      <c r="D93" s="43"/>
-      <c r="E93" s="42"/>
-      <c r="F93" s="42"/>
-      <c r="G93" s="42"/>
-      <c r="H93" s="44"/>
-    </row>
-    <row r="94" spans="2:8">
-      <c r="B94" s="64" t="s">
-        <v>68</v>
-      </c>
-      <c r="C94" s="50"/>
-      <c r="D94" s="43"/>
-      <c r="E94" s="42"/>
-      <c r="F94" s="42"/>
-      <c r="G94" s="42"/>
-      <c r="H94" s="44"/>
-    </row>
-    <row r="95" spans="2:8" s="12" customFormat="1">
-      <c r="B95" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C95" s="49"/>
-      <c r="D95" s="39"/>
-      <c r="E95" s="40"/>
-      <c r="F95" s="41"/>
-      <c r="G95" s="41"/>
-      <c r="H95" s="41"/>
-    </row>
-    <row r="96" spans="2:8" ht="156">
-      <c r="B96" s="42" t="s">
-        <v>71</v>
-      </c>
+    <row r="93" spans="2:8">
+      <c r="B93" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" s="48"/>
+      <c r="D93" s="36"/>
+      <c r="E93" s="36"/>
+      <c r="F93" s="36"/>
+      <c r="G93" s="36"/>
+      <c r="H93" s="37"/>
+    </row>
+    <row r="94" spans="2:8" s="12" customFormat="1">
+      <c r="B94" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C94" s="49"/>
+      <c r="D94" s="39"/>
+      <c r="E94" s="40"/>
+      <c r="F94" s="41"/>
+      <c r="G94" s="41"/>
+      <c r="H94" s="41"/>
+    </row>
+    <row r="95" spans="2:8" ht="130">
+      <c r="B95" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="C95" s="50"/>
+      <c r="D95" s="43"/>
+      <c r="E95" s="42"/>
+      <c r="F95" s="42"/>
+      <c r="G95" s="42"/>
+      <c r="H95" s="44"/>
+    </row>
+    <row r="96" spans="2:8">
+      <c r="B96" s="42"/>
       <c r="C96" s="50"/>
       <c r="D96" s="43"/>
       <c r="E96" s="42"/>
@@ -4321,9 +4749,7 @@
       <c r="H96" s="44"/>
     </row>
     <row r="97" spans="2:8">
-      <c r="B97" s="62" t="s">
-        <v>58</v>
-      </c>
+      <c r="B97" s="42"/>
       <c r="C97" s="50"/>
       <c r="D97" s="43"/>
       <c r="E97" s="42"/>
@@ -4331,20 +4757,20 @@
       <c r="G97" s="42"/>
       <c r="H97" s="44"/>
     </row>
-    <row r="98" spans="2:8">
-      <c r="B98" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="C98" s="50"/>
-      <c r="D98" s="43"/>
-      <c r="E98" s="42"/>
-      <c r="F98" s="42"/>
-      <c r="G98" s="42"/>
-      <c r="H98" s="44"/>
-    </row>
-    <row r="99" spans="2:8">
-      <c r="B99" s="62" t="s">
-        <v>59</v>
+    <row r="98" spans="2:8" s="12" customFormat="1">
+      <c r="B98" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C98" s="49"/>
+      <c r="D98" s="39"/>
+      <c r="E98" s="40"/>
+      <c r="F98" s="41"/>
+      <c r="G98" s="41"/>
+      <c r="H98" s="41"/>
+    </row>
+    <row r="99" spans="2:8" ht="52">
+      <c r="B99" s="42" t="s">
+        <v>64</v>
       </c>
       <c r="C99" s="50"/>
       <c r="D99" s="43"/>
@@ -4353,8 +4779,10 @@
       <c r="G99" s="42"/>
       <c r="H99" s="44"/>
     </row>
-    <row r="100" spans="2:8">
-      <c r="B100" s="42"/>
+    <row r="100" spans="2:8" ht="52">
+      <c r="B100" s="42" t="s">
+        <v>66</v>
+      </c>
       <c r="C100" s="50"/>
       <c r="D100" s="43"/>
       <c r="E100" s="42"/>
@@ -4362,79 +4790,95 @@
       <c r="G100" s="42"/>
       <c r="H100" s="44"/>
     </row>
-    <row r="101" spans="2:8" s="12" customFormat="1">
-      <c r="B101" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="C101" s="49"/>
-      <c r="D101" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="E101" s="40"/>
-      <c r="F101" s="41"/>
-      <c r="G101" s="41"/>
-      <c r="H101" s="41" t="s">
-        <v>84</v>
-      </c>
+    <row r="101" spans="2:8">
+      <c r="B101" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="C101" s="50"/>
+      <c r="D101" s="43"/>
+      <c r="E101" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="F101" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="G101" s="42"/>
+      <c r="H101" s="44"/>
     </row>
     <row r="102" spans="2:8">
-      <c r="B102" s="61" t="s">
-        <v>56</v>
+      <c r="B102" s="60" t="s">
+        <v>43</v>
       </c>
       <c r="C102" s="50"/>
       <c r="D102" s="43"/>
-      <c r="E102" s="42"/>
-      <c r="F102" s="42"/>
+      <c r="E102" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="F102" s="42" t="s">
+        <v>100</v>
+      </c>
       <c r="G102" s="42"/>
       <c r="H102" s="44"/>
     </row>
-    <row r="103" spans="2:8" ht="26">
-      <c r="B103" s="61" t="s">
-        <v>57</v>
+    <row r="103" spans="2:8">
+      <c r="B103" s="60" t="s">
+        <v>43</v>
       </c>
       <c r="C103" s="50"/>
       <c r="D103" s="43"/>
-      <c r="E103" s="42"/>
-      <c r="F103" s="42"/>
+      <c r="E103" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F103" s="42" t="s">
+        <v>101</v>
+      </c>
       <c r="G103" s="42"/>
       <c r="H103" s="44"/>
     </row>
-    <row r="104" spans="2:8">
-      <c r="B104" s="61" t="s">
-        <v>61</v>
+    <row r="104" spans="2:8" ht="52">
+      <c r="B104" s="42" t="s">
+        <v>67</v>
       </c>
       <c r="C104" s="50"/>
       <c r="D104" s="43"/>
-      <c r="E104" s="42"/>
-      <c r="F104" s="42"/>
+      <c r="E104" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="F104" s="42" t="s">
+        <v>103</v>
+      </c>
       <c r="G104" s="42"/>
       <c r="H104" s="44"/>
     </row>
-    <row r="105" spans="2:8" ht="26">
-      <c r="B105" s="61" t="s">
-        <v>62</v>
+    <row r="105" spans="2:8">
+      <c r="B105" s="64" t="s">
+        <v>65</v>
       </c>
       <c r="C105" s="50"/>
       <c r="D105" s="43"/>
-      <c r="E105" s="42"/>
-      <c r="F105" s="42"/>
+      <c r="E105" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="F105" s="42" t="s">
+        <v>103</v>
+      </c>
       <c r="G105" s="42"/>
       <c r="H105" s="44"/>
     </row>
-    <row r="106" spans="2:8">
-      <c r="B106" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="C106" s="50"/>
-      <c r="D106" s="43"/>
-      <c r="E106" s="42"/>
-      <c r="F106" s="42"/>
-      <c r="G106" s="42"/>
-      <c r="H106" s="44"/>
-    </row>
-    <row r="107" spans="2:8">
-      <c r="B107" s="61" t="s">
-        <v>64</v>
+    <row r="106" spans="2:8" s="12" customFormat="1">
+      <c r="B106" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="C106" s="49"/>
+      <c r="D106" s="39"/>
+      <c r="E106" s="40"/>
+      <c r="F106" s="41"/>
+      <c r="G106" s="41"/>
+      <c r="H106" s="41"/>
+    </row>
+    <row r="107" spans="2:8" ht="156">
+      <c r="B107" s="42" t="s">
+        <v>68</v>
       </c>
       <c r="C107" s="50"/>
       <c r="D107" s="43"/>
@@ -4443,20 +4887,20 @@
       <c r="G107" s="42"/>
       <c r="H107" s="44"/>
     </row>
-    <row r="108" spans="2:8" s="12" customFormat="1">
-      <c r="B108" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C108" s="49"/>
-      <c r="D108" s="39"/>
-      <c r="E108" s="40"/>
-      <c r="F108" s="41"/>
-      <c r="G108" s="41"/>
-      <c r="H108" s="41"/>
-    </row>
-    <row r="109" spans="2:8" ht="52">
-      <c r="B109" s="42" t="s">
-        <v>72</v>
+    <row r="108" spans="2:8">
+      <c r="B108" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="C108" s="50"/>
+      <c r="D108" s="43"/>
+      <c r="E108" s="42"/>
+      <c r="F108" s="42"/>
+      <c r="G108" s="42"/>
+      <c r="H108" s="44"/>
+    </row>
+    <row r="109" spans="2:8">
+      <c r="B109" s="62" t="s">
+        <v>57</v>
       </c>
       <c r="C109" s="50"/>
       <c r="D109" s="43"/>
@@ -4466,19 +4910,19 @@
       <c r="H109" s="44"/>
     </row>
     <row r="110" spans="2:8">
-      <c r="B110" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C110" s="48"/>
-      <c r="D110" s="36"/>
-      <c r="E110" s="36"/>
-      <c r="F110" s="36"/>
-      <c r="G110" s="36"/>
-      <c r="H110" s="37"/>
+      <c r="B110" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="C110" s="50"/>
+      <c r="D110" s="43"/>
+      <c r="E110" s="42"/>
+      <c r="F110" s="42"/>
+      <c r="G110" s="42"/>
+      <c r="H110" s="44"/>
     </row>
     <row r="111" spans="2:8" s="12" customFormat="1">
       <c r="B111" s="38" t="s">
-        <v>37</v>
+        <v>140</v>
       </c>
       <c r="C111" s="49"/>
       <c r="D111" s="39"/>
@@ -4487,42 +4931,54 @@
       <c r="G111" s="41"/>
       <c r="H111" s="41"/>
     </row>
-    <row r="112" spans="2:8" ht="156">
-      <c r="B112" s="42" t="s">
-        <v>73</v>
-      </c>
+    <row r="112" spans="2:8">
+      <c r="B112" s="42"/>
       <c r="C112" s="50"/>
       <c r="D112" s="43"/>
-      <c r="E112" s="42"/>
-      <c r="F112" s="42"/>
-      <c r="G112" s="42"/>
+      <c r="E112" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="F112" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="G112" s="42" t="s">
+        <v>101</v>
+      </c>
       <c r="H112" s="44"/>
     </row>
-    <row r="113" spans="2:8" ht="39">
-      <c r="B113" s="63" t="s">
-        <v>74</v>
-      </c>
+    <row r="113" spans="2:8">
+      <c r="B113" s="42"/>
       <c r="C113" s="50"/>
       <c r="D113" s="43"/>
-      <c r="E113" s="42"/>
-      <c r="F113" s="42"/>
-      <c r="G113" s="42"/>
+      <c r="E113" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="F113" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="G113" s="42" t="s">
+        <v>101</v>
+      </c>
       <c r="H113" s="44"/>
     </row>
-    <row r="114" spans="2:8" ht="78">
-      <c r="B114" s="63" t="s">
-        <v>75</v>
-      </c>
-      <c r="C114" s="50"/>
-      <c r="D114" s="43"/>
-      <c r="E114" s="42"/>
-      <c r="F114" s="42"/>
-      <c r="G114" s="42"/>
-      <c r="H114" s="44"/>
+    <row r="114" spans="2:8" s="12" customFormat="1">
+      <c r="B114" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C114" s="49"/>
+      <c r="D114" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E114" s="40"/>
+      <c r="F114" s="41"/>
+      <c r="G114" s="41"/>
+      <c r="H114" s="41" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="115" spans="2:8">
-      <c r="B115" s="63" t="s">
-        <v>76</v>
+      <c r="B115" s="61" t="s">
+        <v>53</v>
       </c>
       <c r="C115" s="50"/>
       <c r="D115" s="43"/>
@@ -4531,20 +4987,20 @@
       <c r="G115" s="42"/>
       <c r="H115" s="44"/>
     </row>
-    <row r="116" spans="2:8" s="12" customFormat="1">
-      <c r="B116" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="C116" s="49"/>
-      <c r="D116" s="39"/>
-      <c r="E116" s="40"/>
-      <c r="F116" s="41"/>
-      <c r="G116" s="41"/>
-      <c r="H116" s="41"/>
-    </row>
-    <row r="117" spans="2:8" ht="78">
-      <c r="B117" s="42" t="s">
-        <v>80</v>
+    <row r="116" spans="2:8" ht="26">
+      <c r="B116" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="C116" s="50"/>
+      <c r="D116" s="43"/>
+      <c r="E116" s="42"/>
+      <c r="F116" s="42"/>
+      <c r="G116" s="42"/>
+      <c r="H116" s="44"/>
+    </row>
+    <row r="117" spans="2:8">
+      <c r="B117" s="61" t="s">
+        <v>58</v>
       </c>
       <c r="C117" s="50"/>
       <c r="D117" s="43"/>
@@ -4553,9 +5009,9 @@
       <c r="G117" s="42"/>
       <c r="H117" s="44"/>
     </row>
-    <row r="118" spans="2:8">
-      <c r="B118" s="63" t="s">
-        <v>79</v>
+    <row r="118" spans="2:8" ht="26">
+      <c r="B118" s="61" t="s">
+        <v>59</v>
       </c>
       <c r="C118" s="50"/>
       <c r="D118" s="43"/>
@@ -4565,8 +5021,8 @@
       <c r="H118" s="44"/>
     </row>
     <row r="119" spans="2:8">
-      <c r="B119" s="65" t="s">
-        <v>78</v>
+      <c r="B119" s="61" t="s">
+        <v>60</v>
       </c>
       <c r="C119" s="50"/>
       <c r="D119" s="43"/>
@@ -4575,9 +5031,9 @@
       <c r="G119" s="42"/>
       <c r="H119" s="44"/>
     </row>
-    <row r="120" spans="2:8" ht="52">
+    <row r="120" spans="2:8">
       <c r="B120" s="61" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C120" s="50"/>
       <c r="D120" s="43"/>
@@ -4586,61 +5042,53 @@
       <c r="G120" s="42"/>
       <c r="H120" s="44"/>
     </row>
-    <row r="121" spans="2:8">
-      <c r="B121" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="C121" s="50"/>
-      <c r="D121" s="43"/>
-      <c r="E121" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="F121" s="42"/>
-      <c r="G121" s="42"/>
-      <c r="H121" s="44"/>
-    </row>
-    <row r="122" spans="2:8">
-      <c r="B122" s="60" t="s">
-        <v>45</v>
+    <row r="121" spans="2:8" s="12" customFormat="1">
+      <c r="B121" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C121" s="49"/>
+      <c r="D121" s="39"/>
+      <c r="E121" s="40"/>
+      <c r="F121" s="41"/>
+      <c r="G121" s="41"/>
+      <c r="H121" s="41"/>
+    </row>
+    <row r="122" spans="2:8" ht="52">
+      <c r="B122" s="42" t="s">
+        <v>69</v>
       </c>
       <c r="C122" s="50"/>
       <c r="D122" s="43"/>
-      <c r="E122" s="42" t="s">
-        <v>19</v>
-      </c>
+      <c r="E122" s="42"/>
       <c r="F122" s="42"/>
       <c r="G122" s="42"/>
       <c r="H122" s="44"/>
     </row>
     <row r="123" spans="2:8">
-      <c r="B123" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="C123" s="50"/>
-      <c r="D123" s="43"/>
-      <c r="E123" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="F123" s="42"/>
-      <c r="G123" s="42"/>
-      <c r="H123" s="44"/>
-    </row>
-    <row r="124" spans="2:8">
-      <c r="B124" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="C124" s="50"/>
-      <c r="D124" s="43"/>
-      <c r="E124" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="F124" s="42"/>
-      <c r="G124" s="42"/>
-      <c r="H124" s="44"/>
-    </row>
-    <row r="125" spans="2:8" ht="78">
+      <c r="B123" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C123" s="48"/>
+      <c r="D123" s="36"/>
+      <c r="E123" s="36"/>
+      <c r="F123" s="36"/>
+      <c r="G123" s="36"/>
+      <c r="H123" s="37"/>
+    </row>
+    <row r="124" spans="2:8" s="12" customFormat="1">
+      <c r="B124" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C124" s="49"/>
+      <c r="D124" s="39"/>
+      <c r="E124" s="40"/>
+      <c r="F124" s="41"/>
+      <c r="G124" s="41"/>
+      <c r="H124" s="41"/>
+    </row>
+    <row r="125" spans="2:8" ht="156">
       <c r="B125" s="42" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C125" s="50"/>
       <c r="D125" s="43"/>
@@ -4649,7 +5097,10 @@
       <c r="G125" s="42"/>
       <c r="H125" s="44"/>
     </row>
-    <row r="126" spans="2:8">
+    <row r="126" spans="2:8" ht="39">
+      <c r="B126" s="63" t="s">
+        <v>71</v>
+      </c>
       <c r="C126" s="50"/>
       <c r="D126" s="43"/>
       <c r="E126" s="42"/>
@@ -4657,20 +5108,20 @@
       <c r="G126" s="42"/>
       <c r="H126" s="44"/>
     </row>
-    <row r="127" spans="2:8" s="12" customFormat="1">
-      <c r="B127" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C127" s="49"/>
-      <c r="D127" s="39"/>
-      <c r="E127" s="40"/>
-      <c r="F127" s="41"/>
-      <c r="G127" s="41"/>
-      <c r="H127" s="41"/>
-    </row>
-    <row r="128" spans="2:8" ht="169">
-      <c r="B128" s="42" t="s">
-        <v>82</v>
+    <row r="127" spans="2:8" ht="78">
+      <c r="B127" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="C127" s="50"/>
+      <c r="D127" s="43"/>
+      <c r="E127" s="42"/>
+      <c r="F127" s="42"/>
+      <c r="G127" s="42"/>
+      <c r="H127" s="44"/>
+    </row>
+    <row r="128" spans="2:8">
+      <c r="B128" s="63" t="s">
+        <v>73</v>
       </c>
       <c r="C128" s="50"/>
       <c r="D128" s="43"/>
@@ -4679,20 +5130,20 @@
       <c r="G128" s="42"/>
       <c r="H128" s="44"/>
     </row>
-    <row r="129" spans="1:8">
-      <c r="B129" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="C129" s="50"/>
-      <c r="D129" s="43"/>
-      <c r="E129" s="42"/>
-      <c r="F129" s="42"/>
-      <c r="G129" s="42"/>
-      <c r="H129" s="44"/>
-    </row>
-    <row r="130" spans="1:8">
-      <c r="B130" s="62" t="s">
-        <v>60</v>
+    <row r="129" spans="2:8" s="12" customFormat="1">
+      <c r="B129" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C129" s="49"/>
+      <c r="D129" s="39"/>
+      <c r="E129" s="40"/>
+      <c r="F129" s="41"/>
+      <c r="G129" s="41"/>
+      <c r="H129" s="41"/>
+    </row>
+    <row r="130" spans="2:8" ht="78">
+      <c r="B130" s="42" t="s">
+        <v>77</v>
       </c>
       <c r="C130" s="50"/>
       <c r="D130" s="43"/>
@@ -4701,9 +5152,9 @@
       <c r="G130" s="42"/>
       <c r="H130" s="44"/>
     </row>
-    <row r="131" spans="1:8">
-      <c r="B131" s="62" t="s">
-        <v>59</v>
+    <row r="131" spans="2:8">
+      <c r="B131" s="63" t="s">
+        <v>76</v>
       </c>
       <c r="C131" s="50"/>
       <c r="D131" s="43"/>
@@ -4712,9 +5163,9 @@
       <c r="G131" s="42"/>
       <c r="H131" s="44"/>
     </row>
-    <row r="132" spans="1:8" ht="26">
-      <c r="B132" s="63" t="s">
-        <v>83</v>
+    <row r="132" spans="2:8">
+      <c r="B132" s="65" t="s">
+        <v>75</v>
       </c>
       <c r="C132" s="50"/>
       <c r="D132" s="43"/>
@@ -4723,95 +5174,99 @@
       <c r="G132" s="42"/>
       <c r="H132" s="44"/>
     </row>
-    <row r="133" spans="1:8">
-      <c r="B133" s="42"/>
+    <row r="133" spans="2:8" ht="52">
+      <c r="B133" s="61" t="s">
+        <v>74</v>
+      </c>
       <c r="C133" s="50"/>
       <c r="D133" s="43"/>
-      <c r="E133" s="42"/>
-      <c r="F133" s="42"/>
+      <c r="E133" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="F133" s="42" t="s">
+        <v>103</v>
+      </c>
       <c r="G133" s="42"/>
       <c r="H133" s="44"/>
     </row>
-    <row r="134" spans="1:8" s="66" customFormat="1">
-      <c r="A134" s="12"/>
-      <c r="B134" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="C134" s="49"/>
-      <c r="D134" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="E134" s="40"/>
-      <c r="F134" s="41"/>
-      <c r="G134" s="41"/>
-      <c r="H134" s="41" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" s="67" customFormat="1" ht="13">
-      <c r="A135" s="42"/>
-      <c r="B135" s="61" t="s">
-        <v>56</v>
+    <row r="134" spans="2:8">
+      <c r="B134" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="C134" s="50"/>
+      <c r="D134" s="43"/>
+      <c r="E134" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="F134" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="G134" s="42"/>
+      <c r="H134" s="44"/>
+    </row>
+    <row r="135" spans="2:8">
+      <c r="B135" s="60" t="s">
+        <v>43</v>
       </c>
       <c r="C135" s="50"/>
-      <c r="D135" s="42"/>
-      <c r="E135" s="42"/>
-      <c r="F135" s="42"/>
+      <c r="D135" s="43"/>
+      <c r="E135" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="F135" s="42" t="s">
+        <v>100</v>
+      </c>
       <c r="G135" s="42"/>
-      <c r="H135" s="42"/>
-    </row>
-    <row r="136" spans="1:8" s="67" customFormat="1" ht="26">
-      <c r="A136" s="42"/>
-      <c r="B136" s="61" t="s">
-        <v>57</v>
+      <c r="H135" s="44"/>
+    </row>
+    <row r="136" spans="2:8">
+      <c r="B136" s="60" t="s">
+        <v>43</v>
       </c>
       <c r="C136" s="50"/>
-      <c r="D136" s="42"/>
-      <c r="E136" s="42"/>
-      <c r="F136" s="42"/>
+      <c r="D136" s="43"/>
+      <c r="E136" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F136" s="42" t="s">
+        <v>101</v>
+      </c>
       <c r="G136" s="42"/>
-      <c r="H136" s="42"/>
-    </row>
-    <row r="137" spans="1:8" s="67" customFormat="1" ht="13">
-      <c r="A137" s="42"/>
-      <c r="B137" s="61" t="s">
-        <v>61</v>
+      <c r="H136" s="44"/>
+    </row>
+    <row r="137" spans="2:8" ht="78">
+      <c r="B137" s="42" t="s">
+        <v>78</v>
       </c>
       <c r="C137" s="50"/>
-      <c r="D137" s="42"/>
+      <c r="D137" s="43"/>
       <c r="E137" s="42"/>
       <c r="F137" s="42"/>
       <c r="G137" s="42"/>
-      <c r="H137" s="42"/>
-    </row>
-    <row r="138" spans="1:8" s="67" customFormat="1" ht="26">
-      <c r="A138" s="42"/>
-      <c r="B138" s="61" t="s">
-        <v>62</v>
-      </c>
+      <c r="H137" s="44"/>
+    </row>
+    <row r="138" spans="2:8">
       <c r="C138" s="50"/>
-      <c r="D138" s="42"/>
+      <c r="D138" s="43"/>
       <c r="E138" s="42"/>
       <c r="F138" s="42"/>
       <c r="G138" s="42"/>
-      <c r="H138" s="42"/>
-    </row>
-    <row r="139" spans="1:8" s="67" customFormat="1" ht="13">
-      <c r="A139" s="42"/>
-      <c r="B139" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="C139" s="50"/>
-      <c r="D139" s="42"/>
-      <c r="E139" s="42"/>
-      <c r="F139" s="42"/>
-      <c r="G139" s="42"/>
-      <c r="H139" s="42"/>
-    </row>
-    <row r="140" spans="1:8" s="68" customFormat="1">
-      <c r="A140"/>
-      <c r="B140" s="61" t="s">
-        <v>64</v>
+      <c r="H138" s="44"/>
+    </row>
+    <row r="139" spans="2:8" s="12" customFormat="1">
+      <c r="B139" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="C139" s="49"/>
+      <c r="D139" s="39"/>
+      <c r="E139" s="40"/>
+      <c r="F139" s="41"/>
+      <c r="G139" s="41"/>
+      <c r="H139" s="41"/>
+    </row>
+    <row r="140" spans="2:8" ht="169">
+      <c r="B140" s="42" t="s">
+        <v>79</v>
       </c>
       <c r="C140" s="50"/>
       <c r="D140" s="43"/>
@@ -4820,9 +5275,10 @@
       <c r="G140" s="42"/>
       <c r="H140" s="44"/>
     </row>
-    <row r="141" spans="1:8" s="68" customFormat="1">
-      <c r="A141"/>
-      <c r="B141" s="42"/>
+    <row r="141" spans="2:8">
+      <c r="B141" s="62" t="s">
+        <v>55</v>
+      </c>
       <c r="C141" s="50"/>
       <c r="D141" s="43"/>
       <c r="E141" s="42"/>
@@ -4830,8 +5286,10 @@
       <c r="G141" s="42"/>
       <c r="H141" s="44"/>
     </row>
-    <row r="142" spans="1:8">
-      <c r="B142" s="42"/>
+    <row r="142" spans="2:8">
+      <c r="B142" s="62" t="s">
+        <v>57</v>
+      </c>
       <c r="C142" s="50"/>
       <c r="D142" s="43"/>
       <c r="E142" s="42"/>
@@ -4839,20 +5297,20 @@
       <c r="G142" s="42"/>
       <c r="H142" s="44"/>
     </row>
-    <row r="143" spans="1:8" s="12" customFormat="1">
-      <c r="B143" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C143" s="49"/>
-      <c r="D143" s="39"/>
-      <c r="E143" s="40"/>
-      <c r="F143" s="41"/>
-      <c r="G143" s="41"/>
-      <c r="H143" s="41"/>
-    </row>
-    <row r="144" spans="1:8" ht="52">
-      <c r="B144" s="42" t="s">
-        <v>72</v>
+    <row r="143" spans="2:8">
+      <c r="B143" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="C143" s="50"/>
+      <c r="D143" s="43"/>
+      <c r="E143" s="42"/>
+      <c r="F143" s="42"/>
+      <c r="G143" s="42"/>
+      <c r="H143" s="44"/>
+    </row>
+    <row r="144" spans="2:8" ht="26">
+      <c r="B144" s="63" t="s">
+        <v>80</v>
       </c>
       <c r="C144" s="50"/>
       <c r="D144" s="43"/>
@@ -4861,66 +5319,283 @@
       <c r="G144" s="42"/>
       <c r="H144" s="44"/>
     </row>
-    <row r="145" spans="2:8" ht="26">
-      <c r="B145" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="C145" s="50"/>
-      <c r="D145" s="43"/>
-      <c r="E145" s="42"/>
-      <c r="F145" s="42"/>
-      <c r="G145" s="42"/>
-      <c r="H145" s="44"/>
-    </row>
-    <row r="146" spans="2:8">
+    <row r="145" spans="1:8" s="12" customFormat="1">
+      <c r="B145" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="C145" s="49"/>
+      <c r="D145" s="39"/>
+      <c r="E145" s="40"/>
+      <c r="F145" s="41"/>
+      <c r="G145" s="41"/>
+      <c r="H145" s="41"/>
+    </row>
+    <row r="146" spans="1:8">
       <c r="B146" s="42"/>
       <c r="C146" s="50"/>
       <c r="D146" s="43"/>
-      <c r="E146" s="42"/>
-      <c r="F146" s="42"/>
-      <c r="G146" s="42"/>
+      <c r="E146" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="F146" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="G146" s="42" t="s">
+        <v>101</v>
+      </c>
       <c r="H146" s="44"/>
     </row>
-    <row r="147" spans="2:8">
+    <row r="147" spans="1:8">
       <c r="B147" s="42"/>
       <c r="C147" s="50"/>
       <c r="D147" s="43"/>
-      <c r="E147" s="42"/>
-      <c r="F147" s="42"/>
-      <c r="G147" s="42"/>
+      <c r="E147" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="F147" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="G147" s="42" t="s">
+        <v>101</v>
+      </c>
       <c r="H147" s="44"/>
     </row>
-    <row r="148" spans="2:8">
-      <c r="B148" s="45"/>
-      <c r="C148" s="51"/>
-      <c r="D148" s="45"/>
-      <c r="E148" s="42"/>
-      <c r="F148" s="42"/>
-      <c r="G148" s="42"/>
-      <c r="H148" s="46"/>
+    <row r="148" spans="1:8" s="66" customFormat="1">
+      <c r="A148" s="12"/>
+      <c r="B148" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C148" s="49"/>
+      <c r="D148" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E148" s="40"/>
+      <c r="F148" s="41"/>
+      <c r="G148" s="41"/>
+      <c r="H148" s="41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" s="67" customFormat="1" ht="13">
+      <c r="A149" s="42"/>
+      <c r="B149" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="C149" s="50"/>
+      <c r="D149" s="42"/>
+      <c r="E149" s="42"/>
+      <c r="F149" s="42"/>
+      <c r="G149" s="42"/>
+      <c r="H149" s="42"/>
+    </row>
+    <row r="150" spans="1:8" s="67" customFormat="1" ht="26">
+      <c r="A150" s="42"/>
+      <c r="B150" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="C150" s="50"/>
+      <c r="D150" s="42"/>
+      <c r="E150" s="42"/>
+      <c r="F150" s="42"/>
+      <c r="G150" s="42"/>
+      <c r="H150" s="42"/>
+    </row>
+    <row r="151" spans="1:8" s="67" customFormat="1" ht="13">
+      <c r="A151" s="42"/>
+      <c r="B151" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="C151" s="50"/>
+      <c r="D151" s="42"/>
+      <c r="E151" s="42"/>
+      <c r="F151" s="42"/>
+      <c r="G151" s="42"/>
+      <c r="H151" s="42"/>
+    </row>
+    <row r="152" spans="1:8" s="67" customFormat="1" ht="26">
+      <c r="A152" s="42"/>
+      <c r="B152" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C152" s="50"/>
+      <c r="D152" s="42"/>
+      <c r="E152" s="42"/>
+      <c r="F152" s="42"/>
+      <c r="G152" s="42"/>
+      <c r="H152" s="42"/>
+    </row>
+    <row r="153" spans="1:8" s="67" customFormat="1" ht="13">
+      <c r="A153" s="42"/>
+      <c r="B153" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="C153" s="50"/>
+      <c r="D153" s="42"/>
+      <c r="E153" s="42"/>
+      <c r="F153" s="42"/>
+      <c r="G153" s="42"/>
+      <c r="H153" s="42"/>
+    </row>
+    <row r="154" spans="1:8" s="68" customFormat="1">
+      <c r="A154"/>
+      <c r="B154" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="C154" s="50"/>
+      <c r="D154" s="43"/>
+      <c r="E154" s="42"/>
+      <c r="F154" s="42"/>
+      <c r="G154" s="42"/>
+      <c r="H154" s="44"/>
+    </row>
+    <row r="155" spans="1:8" s="68" customFormat="1">
+      <c r="A155"/>
+      <c r="B155" s="42"/>
+      <c r="C155" s="50"/>
+      <c r="D155" s="43"/>
+      <c r="E155" s="42"/>
+      <c r="F155" s="42"/>
+      <c r="G155" s="42"/>
+      <c r="H155" s="44"/>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="B156" s="42"/>
+      <c r="C156" s="50"/>
+      <c r="D156" s="43"/>
+      <c r="E156" s="42"/>
+      <c r="F156" s="42"/>
+      <c r="G156" s="42"/>
+      <c r="H156" s="44"/>
+    </row>
+    <row r="157" spans="1:8" s="12" customFormat="1">
+      <c r="B157" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C157" s="49"/>
+      <c r="D157" s="39"/>
+      <c r="E157" s="40"/>
+      <c r="F157" s="41"/>
+      <c r="G157" s="41"/>
+      <c r="H157" s="41"/>
+    </row>
+    <row r="158" spans="1:8" ht="52">
+      <c r="B158" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C158" s="50"/>
+      <c r="D158" s="43"/>
+      <c r="E158" s="42"/>
+      <c r="F158" s="42"/>
+      <c r="G158" s="42"/>
+      <c r="H158" s="44"/>
+    </row>
+    <row r="159" spans="1:8" ht="26">
+      <c r="B159" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="C159" s="50"/>
+      <c r="D159" s="43"/>
+      <c r="E159" s="42"/>
+      <c r="F159" s="42"/>
+      <c r="G159" s="42"/>
+      <c r="H159" s="44"/>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="B160" s="42"/>
+      <c r="C160" s="50"/>
+      <c r="D160" s="43"/>
+      <c r="E160" s="42"/>
+      <c r="F160" s="42"/>
+      <c r="G160" s="42"/>
+      <c r="H160" s="44"/>
+    </row>
+    <row r="161" spans="2:8">
+      <c r="B161" s="42"/>
+      <c r="C161" s="50"/>
+      <c r="D161" s="43"/>
+      <c r="E161" s="42"/>
+      <c r="F161" s="42"/>
+      <c r="G161" s="42"/>
+      <c r="H161" s="44"/>
+    </row>
+    <row r="162" spans="2:8">
+      <c r="B162" s="45"/>
+      <c r="C162" s="51"/>
+      <c r="D162" s="45"/>
+      <c r="E162" s="42"/>
+      <c r="F162" s="42"/>
+      <c r="G162" s="42"/>
+      <c r="H162" s="46"/>
     </row>
   </sheetData>
   <autoFilter ref="B11:H11" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="C55:C56 C148:C1048576 C52 C42:C44 C66:C69 C39:C40 C58:C59 C64 C22:C23">
-    <cfRule type="cellIs" dxfId="144" priority="198" operator="between">
+  <conditionalFormatting sqref="C62:C64 C162:C1048576 C59 C45:C48 C73:C78 C66:C67 C71 C22:C23 C39:C40 C99:C105 C130:C137">
+    <cfRule type="cellIs" dxfId="154" priority="219" operator="between">
       <formula>$C$9</formula>
       <formula>$C$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="199" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="153" priority="220" operator="lessThanOrEqual">
       <formula>$C$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15:H20 B15:B20 H52 B52:E52 H42:H44 B67:E69 H66:H69 B39:F40 B27:F29 D15:E20 B31:F37 B55:F56 C58:F59 C66:E66 C64:F64 C75:F78 B71:B78 F117:F125 C135:F139 B22:F23 H22:H23 H135:XFD139 H117:H125 H75:H78 H64 H58:H59 H55:H56 H31:H37 H27:H29 H39:H40 B42:E42 B44:E44 C43:E43 B148:H1048576">
-    <cfRule type="expression" dxfId="142" priority="197">
+  <conditionalFormatting sqref="H15:H20 B15:B20 H59 B59:E59 H45:H48 B76:E78 H73:H78 B27:F29 D15:E20 B62:F62 C66:F67 C73:E75 C71:F71 C87:F90 B83:B90 C149:F153 B22:F23 H22:H23 H149:XFD153 H87:H90 H71 H66:H67 H62:H64 H27:H29 B45:E45 C46:E46 B31:H31 B39:H40 B47:E48 B33:H37 C32:H32 B64:F64 C63:F63 B68:H70 F99:H105 B100:B103 C101:E103 F130:H137 B131:B136 C134:E136 B162:H1048576">
+    <cfRule type="expression" dxfId="152" priority="218">
       <formula>$D15="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F15:F20 F52 F42:F44 F66:F69">
-    <cfRule type="expression" dxfId="141" priority="195">
+  <conditionalFormatting sqref="F15:F20 F59 F45:F48 F73:F78">
+    <cfRule type="expression" dxfId="151" priority="216">
       <formula>$D15="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C45:C49">
+  <conditionalFormatting sqref="C49:C54">
+    <cfRule type="cellIs" dxfId="150" priority="210" operator="between">
+      <formula>$C$9</formula>
+      <formula>$C$8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="149" priority="211" operator="lessThanOrEqual">
+      <formula>$C$8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49:H54 B49:E54">
+    <cfRule type="expression" dxfId="148" priority="209">
+      <formula>$D49="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F49:F54">
+    <cfRule type="expression" dxfId="147" priority="208">
+      <formula>$D49="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C92">
+    <cfRule type="cellIs" dxfId="146" priority="197" operator="between">
+      <formula>$C$9</formula>
+      <formula>$C$8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="198" operator="lessThanOrEqual">
+      <formula>$C$8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H92 B92:E92">
+    <cfRule type="expression" dxfId="144" priority="196">
+      <formula>$D92="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F92">
+    <cfRule type="expression" dxfId="143" priority="195">
+      <formula>$D92="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C87:C90">
+    <cfRule type="cellIs" dxfId="142" priority="193" operator="between">
+      <formula>$C$9</formula>
+      <formula>$C$8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="194" operator="lessThanOrEqual">
+      <formula>$C$8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C86">
     <cfRule type="cellIs" dxfId="140" priority="189" operator="between">
       <formula>$C$9</formula>
       <formula>$C$8</formula>
@@ -4929,679 +5604,678 @@
       <formula>$C$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45:H49 B45:E49">
+  <conditionalFormatting sqref="H86 C86:E86">
     <cfRule type="expression" dxfId="138" priority="188">
-      <formula>$D45="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F45:F49">
+      <formula>$D86="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F86">
     <cfRule type="expression" dxfId="137" priority="187">
-      <formula>$D45="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C80">
-    <cfRule type="cellIs" dxfId="136" priority="176" operator="between">
+      <formula>$D86="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C84:C85">
+    <cfRule type="cellIs" dxfId="136" priority="185" operator="between">
       <formula>$C$9</formula>
       <formula>$C$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="177" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="135" priority="186" operator="lessThanOrEqual">
       <formula>$C$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H80 B80:E80">
-    <cfRule type="expression" dxfId="134" priority="175">
-      <formula>$D80="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F80">
-    <cfRule type="expression" dxfId="133" priority="174">
-      <formula>$D80="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C75:C78">
-    <cfRule type="cellIs" dxfId="132" priority="172" operator="between">
+  <conditionalFormatting sqref="H84:H85 C84:E85">
+    <cfRule type="expression" dxfId="134" priority="184">
+      <formula>$D84="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F84:F85">
+    <cfRule type="expression" dxfId="133" priority="183">
+      <formula>$D84="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C83">
+    <cfRule type="cellIs" dxfId="132" priority="181" operator="between">
       <formula>$C$9</formula>
       <formula>$C$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="173" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="131" priority="182" operator="lessThanOrEqual">
       <formula>$C$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C74">
-    <cfRule type="cellIs" dxfId="130" priority="168" operator="between">
+  <conditionalFormatting sqref="H83 C83:E83">
+    <cfRule type="expression" dxfId="130" priority="180">
+      <formula>$D83="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F83">
+    <cfRule type="expression" dxfId="129" priority="179">
+      <formula>$D83="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C95:C97 C107:C110">
+    <cfRule type="cellIs" dxfId="128" priority="177" operator="between">
       <formula>$C$9</formula>
       <formula>$C$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="169" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="127" priority="178" operator="lessThanOrEqual">
       <formula>$C$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H74 C74:E74">
-    <cfRule type="expression" dxfId="128" priority="167">
-      <formula>$D74="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F74">
-    <cfRule type="expression" dxfId="127" priority="166">
-      <formula>$D74="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C72:C73">
-    <cfRule type="cellIs" dxfId="126" priority="164" operator="between">
+  <conditionalFormatting sqref="B95:E97 H95:H97 B105:E105 B107:E110 H107:H110 C99:E100 C104:E104">
+    <cfRule type="expression" dxfId="126" priority="176">
+      <formula>$D95="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F95:F97 F107:F110">
+    <cfRule type="expression" dxfId="125" priority="175">
+      <formula>$D95="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C122">
+    <cfRule type="cellIs" dxfId="124" priority="165" operator="between">
       <formula>$C$9</formula>
       <formula>$C$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="165" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="123" priority="166" operator="lessThanOrEqual">
       <formula>$C$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H72:H73 C72:E73">
-    <cfRule type="expression" dxfId="124" priority="163">
-      <formula>$D72="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F72:F73">
-    <cfRule type="expression" dxfId="123" priority="162">
-      <formula>$D72="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C71">
-    <cfRule type="cellIs" dxfId="122" priority="160" operator="between">
+  <conditionalFormatting sqref="H122 C122:E122">
+    <cfRule type="expression" dxfId="122" priority="164">
+      <formula>$D122="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F122">
+    <cfRule type="expression" dxfId="121" priority="163">
+      <formula>$D122="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C115:C120">
+    <cfRule type="cellIs" dxfId="120" priority="161" operator="between">
       <formula>$C$9</formula>
       <formula>$C$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="161" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="119" priority="162" operator="lessThanOrEqual">
       <formula>$C$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H71 C71:E71">
-    <cfRule type="expression" dxfId="120" priority="159">
-      <formula>$D71="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F71">
-    <cfRule type="expression" dxfId="119" priority="158">
-      <formula>$D71="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C83:C85 C87:C94 C96:C100">
-    <cfRule type="cellIs" dxfId="118" priority="156" operator="between">
+  <conditionalFormatting sqref="H115:H120 C115:E120">
+    <cfRule type="expression" dxfId="118" priority="160">
+      <formula>$D115="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F115:F120">
+    <cfRule type="expression" dxfId="117" priority="159">
+      <formula>$D115="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C125:C128 C161 C140:C144">
+    <cfRule type="cellIs" dxfId="116" priority="145" operator="between">
       <formula>$C$9</formula>
       <formula>$C$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="157" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="115" priority="146" operator="lessThanOrEqual">
       <formula>$C$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B83:E85 H83:H85 H87:H94 B94:E94 B96:E100 H96:H100 C87:E88 C93:E93 C89:D92">
-    <cfRule type="expression" dxfId="116" priority="155">
-      <formula>$D83="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F83:F85 F87:F94 F96:F100">
-    <cfRule type="expression" dxfId="115" priority="154">
-      <formula>$D83="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C109">
-    <cfRule type="cellIs" dxfId="114" priority="144" operator="between">
+  <conditionalFormatting sqref="H125:H128 H161 B161:E161 C125:E128 H140:H144 C140:E144">
+    <cfRule type="expression" dxfId="114" priority="144">
+      <formula>$D125="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F125:F128 F161 F140:F144">
+    <cfRule type="expression" dxfId="113" priority="143">
+      <formula>$D125="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C160">
+    <cfRule type="cellIs" dxfId="112" priority="141" operator="between">
       <formula>$C$9</formula>
       <formula>$C$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="145" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="111" priority="142" operator="lessThanOrEqual">
       <formula>$C$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H109 C109:E109">
-    <cfRule type="expression" dxfId="112" priority="143">
-      <formula>$D109="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F109">
-    <cfRule type="expression" dxfId="111" priority="142">
-      <formula>$D109="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C102:C107">
-    <cfRule type="cellIs" dxfId="110" priority="140" operator="between">
+  <conditionalFormatting sqref="H160 B160:E160">
+    <cfRule type="expression" dxfId="110" priority="140">
+      <formula>$D160="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F160">
+    <cfRule type="expression" dxfId="109" priority="139">
+      <formula>$D160="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C159">
+    <cfRule type="cellIs" dxfId="108" priority="137" operator="between">
       <formula>$C$9</formula>
       <formula>$C$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="141" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="107" priority="138" operator="lessThanOrEqual">
       <formula>$C$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H102:H107 C102:E107">
-    <cfRule type="expression" dxfId="108" priority="139">
-      <formula>$D102="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F102:F107">
-    <cfRule type="expression" dxfId="107" priority="138">
-      <formula>$D102="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C112:C115 C147 C128:C133">
-    <cfRule type="cellIs" dxfId="106" priority="124" operator="between">
+  <conditionalFormatting sqref="H159 C159:E159">
+    <cfRule type="expression" dxfId="106" priority="136">
+      <formula>$D159="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F159">
+    <cfRule type="expression" dxfId="105" priority="135">
+      <formula>$D159="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C158">
+    <cfRule type="cellIs" dxfId="104" priority="133" operator="between">
       <formula>$C$9</formula>
       <formula>$C$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="125" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="103" priority="134" operator="lessThanOrEqual">
       <formula>$C$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H112:H115 H147 B147:E147 C112:E115 B133:E133 H128:H133 C128:E132">
-    <cfRule type="expression" dxfId="104" priority="123">
-      <formula>$D112="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F112:F115 F147 F128:F133">
-    <cfRule type="expression" dxfId="103" priority="122">
-      <formula>$D112="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C146">
-    <cfRule type="cellIs" dxfId="102" priority="120" operator="between">
+  <conditionalFormatting sqref="H158 C158:E158">
+    <cfRule type="expression" dxfId="102" priority="132">
+      <formula>$D158="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F158">
+    <cfRule type="expression" dxfId="101" priority="131">
+      <formula>$D158="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C156">
+    <cfRule type="cellIs" dxfId="100" priority="129" operator="between">
       <formula>$C$9</formula>
       <formula>$C$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="121" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="99" priority="130" operator="lessThanOrEqual">
       <formula>$C$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H146 B146:E146">
-    <cfRule type="expression" dxfId="100" priority="119">
-      <formula>$D146="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F146">
-    <cfRule type="expression" dxfId="99" priority="118">
-      <formula>$D146="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C145">
-    <cfRule type="cellIs" dxfId="98" priority="116" operator="between">
+  <conditionalFormatting sqref="H156 B156:E156">
+    <cfRule type="expression" dxfId="98" priority="128">
+      <formula>$D156="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F156">
+    <cfRule type="expression" dxfId="97" priority="127">
+      <formula>$D156="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C155">
+    <cfRule type="cellIs" dxfId="96" priority="125" operator="between">
       <formula>$C$9</formula>
       <formula>$C$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="117" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="95" priority="126" operator="lessThanOrEqual">
       <formula>$C$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H145 C145:E145">
-    <cfRule type="expression" dxfId="96" priority="115">
-      <formula>$D145="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F145">
-    <cfRule type="expression" dxfId="95" priority="114">
-      <formula>$D145="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C144">
-    <cfRule type="cellIs" dxfId="94" priority="112" operator="between">
+  <conditionalFormatting sqref="H155 B155:E155">
+    <cfRule type="expression" dxfId="94" priority="124">
+      <formula>$D155="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F155">
+    <cfRule type="expression" dxfId="93" priority="123">
+      <formula>$D155="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C149:C154">
+    <cfRule type="cellIs" dxfId="92" priority="121" operator="between">
       <formula>$C$9</formula>
       <formula>$C$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="113" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="91" priority="122" operator="lessThanOrEqual">
       <formula>$C$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H144 C144:E144">
-    <cfRule type="expression" dxfId="92" priority="111">
-      <formula>$D144="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F144">
-    <cfRule type="expression" dxfId="91" priority="110">
-      <formula>$D144="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C142">
-    <cfRule type="cellIs" dxfId="90" priority="108" operator="between">
+  <conditionalFormatting sqref="H154 C154:E154 C149:C154">
+    <cfRule type="expression" dxfId="90" priority="120">
+      <formula>$D149="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F154">
+    <cfRule type="expression" dxfId="89" priority="119">
+      <formula>$D154="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:C29">
+    <cfRule type="cellIs" dxfId="88" priority="113" operator="between">
       <formula>$C$9</formula>
       <formula>$C$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="109" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="87" priority="114" operator="lessThanOrEqual">
       <formula>$C$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H142 B142:E142">
-    <cfRule type="expression" dxfId="88" priority="107">
-      <formula>$D142="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F142">
-    <cfRule type="expression" dxfId="87" priority="106">
-      <formula>$D142="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C141">
-    <cfRule type="cellIs" dxfId="86" priority="104" operator="between">
+  <conditionalFormatting sqref="C31:C37">
+    <cfRule type="cellIs" dxfId="86" priority="109" operator="between">
       <formula>$C$9</formula>
       <formula>$C$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="105" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="85" priority="110" operator="lessThanOrEqual">
       <formula>$C$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H141 B141:E141">
-    <cfRule type="expression" dxfId="84" priority="103">
-      <formula>$D141="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F141">
-    <cfRule type="expression" dxfId="83" priority="102">
-      <formula>$D141="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C135:C140">
-    <cfRule type="cellIs" dxfId="82" priority="100" operator="between">
+  <conditionalFormatting sqref="C30">
+    <cfRule type="cellIs" dxfId="84" priority="105" operator="between">
       <formula>$C$9</formula>
       <formula>$C$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="101" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="83" priority="106" operator="lessThanOrEqual">
       <formula>$C$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H140 C140:E140 C135:C140">
-    <cfRule type="expression" dxfId="80" priority="99">
-      <formula>$D135="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F140">
-    <cfRule type="expression" dxfId="79" priority="98">
-      <formula>$D140="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27:C29">
-    <cfRule type="cellIs" dxfId="78" priority="92" operator="between">
+  <conditionalFormatting sqref="H30 B30:E30">
+    <cfRule type="expression" dxfId="82" priority="104">
+      <formula>$D30="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
+    <cfRule type="expression" dxfId="81" priority="103">
+      <formula>$D30="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:C20">
+    <cfRule type="cellIs" dxfId="80" priority="101" operator="between">
       <formula>$C$9</formula>
       <formula>$C$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="93" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="79" priority="102" operator="lessThanOrEqual">
       <formula>$C$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31:C37">
-    <cfRule type="cellIs" dxfId="76" priority="88" operator="between">
+  <conditionalFormatting sqref="C15:C20">
+    <cfRule type="expression" dxfId="78" priority="100">
+      <formula>$D15="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14 B14 E14">
+    <cfRule type="expression" dxfId="77" priority="94">
+      <formula>$D14="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="expression" dxfId="76" priority="93">
+      <formula>$D14="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="cellIs" dxfId="75" priority="91" operator="between">
       <formula>$C$9</formula>
       <formula>$C$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="89" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="74" priority="92" operator="lessThanOrEqual">
       <formula>$C$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="cellIs" dxfId="74" priority="84" operator="between">
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" dxfId="73" priority="90">
+      <formula>$D14="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B67">
+    <cfRule type="expression" dxfId="72" priority="89">
+      <formula>$D67="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B66">
+    <cfRule type="expression" dxfId="71" priority="87">
+      <formula>$D66="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71">
+    <cfRule type="expression" dxfId="70" priority="86">
+      <formula>$D71="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B73">
+    <cfRule type="expression" dxfId="69" priority="85">
+      <formula>$D73="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B99">
+    <cfRule type="expression" dxfId="68" priority="80">
+      <formula>$D99="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B104">
+    <cfRule type="expression" dxfId="67" priority="79">
+      <formula>$D104="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68:C70">
+    <cfRule type="cellIs" dxfId="66" priority="76" operator="between">
       <formula>$C$9</formula>
       <formula>$C$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="85" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="65" priority="77" operator="lessThanOrEqual">
       <formula>$C$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H30 B30:E30">
-    <cfRule type="expression" dxfId="72" priority="83">
-      <formula>$D30="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
-    <cfRule type="expression" dxfId="71" priority="82">
-      <formula>$D30="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:C20">
-    <cfRule type="cellIs" dxfId="70" priority="80" operator="between">
+  <conditionalFormatting sqref="B122">
+    <cfRule type="expression" dxfId="64" priority="71">
+      <formula>$D122="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B126 B128">
+    <cfRule type="expression" dxfId="63" priority="67">
+      <formula>$D126="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="62" priority="69">
+      <formula>$D14="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125 B127">
+    <cfRule type="expression" dxfId="61" priority="68">
+      <formula>$D125="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C138">
+    <cfRule type="cellIs" dxfId="60" priority="65" operator="between">
       <formula>$C$9</formula>
       <formula>$C$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="81" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="59" priority="66" operator="lessThanOrEqual">
       <formula>$C$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:C20">
-    <cfRule type="expression" dxfId="68" priority="79">
-      <formula>$D15="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14 B14 E14">
-    <cfRule type="expression" dxfId="67" priority="73">
-      <formula>$D14="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="66" priority="72">
-      <formula>$D14="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" dxfId="65" priority="70" operator="between">
+  <conditionalFormatting sqref="H138 C138:E138">
+    <cfRule type="expression" dxfId="58" priority="64">
+      <formula>$D138="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F138">
+    <cfRule type="expression" dxfId="57" priority="63">
+      <formula>$D138="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C130:E133 C137:E137">
+    <cfRule type="expression" dxfId="56" priority="60">
+      <formula>$D130="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B130:B132">
+    <cfRule type="expression" dxfId="55" priority="57">
+      <formula>$D130="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B137">
+    <cfRule type="expression" dxfId="54" priority="56">
+      <formula>$D137="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B140:B143">
+    <cfRule type="expression" dxfId="53" priority="54">
+      <formula>$D140="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B144">
+    <cfRule type="expression" dxfId="52" priority="53">
+      <formula>$D144="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A149:A153">
+    <cfRule type="expression" dxfId="51" priority="52">
+      <formula>$D149="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B149:B154">
+    <cfRule type="expression" dxfId="50" priority="51">
+      <formula>$D149="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B115:B120">
+    <cfRule type="expression" dxfId="49" priority="50">
+      <formula>$D115="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B158">
+    <cfRule type="expression" dxfId="48" priority="49">
+      <formula>$D158="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B159">
+    <cfRule type="expression" dxfId="47" priority="48">
+      <formula>$D159="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="cellIs" dxfId="46" priority="46" operator="between">
       <formula>$C$9</formula>
       <formula>$C$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="71" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="45" priority="47" operator="lessThanOrEqual">
       <formula>$C$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="63" priority="69">
+  <conditionalFormatting sqref="H25 B25:E25">
+    <cfRule type="expression" dxfId="44" priority="45">
+      <formula>$D25="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="expression" dxfId="43" priority="44">
+      <formula>$D25="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27:G29 G62:G64 G66:G67 G71 G87:G90 G149:G153 G22:G23">
+    <cfRule type="expression" dxfId="42" priority="43">
+      <formula>$D22="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15:G20 G59 G45:G48 G73:G78">
+    <cfRule type="expression" dxfId="41" priority="42">
+      <formula>$D15="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G49:G54">
+    <cfRule type="expression" dxfId="40" priority="41">
+      <formula>$D49="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G92">
+    <cfRule type="expression" dxfId="39" priority="40">
+      <formula>$D92="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G86">
+    <cfRule type="expression" dxfId="38" priority="39">
+      <formula>$D86="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G84:G85">
+    <cfRule type="expression" dxfId="37" priority="38">
+      <formula>$D84="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G83">
+    <cfRule type="expression" dxfId="36" priority="37">
+      <formula>$D83="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G95:G97 G107:G110">
+    <cfRule type="expression" dxfId="35" priority="36">
+      <formula>$D95="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G122">
+    <cfRule type="expression" dxfId="34" priority="35">
+      <formula>$D122="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G115:G120">
+    <cfRule type="expression" dxfId="33" priority="34">
+      <formula>$D115="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G125:G128 G161 G140:G144">
+    <cfRule type="expression" dxfId="32" priority="33">
+      <formula>$D125="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G160">
+    <cfRule type="expression" dxfId="31" priority="32">
+      <formula>$D160="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G159">
+    <cfRule type="expression" dxfId="30" priority="31">
+      <formula>$D159="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G158">
+    <cfRule type="expression" dxfId="29" priority="30">
+      <formula>$D158="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G156">
+    <cfRule type="expression" dxfId="28" priority="29">
+      <formula>$D156="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G155">
+    <cfRule type="expression" dxfId="27" priority="28">
+      <formula>$D155="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G154">
+    <cfRule type="expression" dxfId="26" priority="27">
+      <formula>$D154="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30">
+    <cfRule type="expression" dxfId="25" priority="26">
+      <formula>$D30="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="expression" dxfId="24" priority="25">
       <formula>$D14="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B59">
-    <cfRule type="expression" dxfId="62" priority="68">
-      <formula>$D59="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B58">
-    <cfRule type="expression" dxfId="61" priority="66">
-      <formula>$D58="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B64">
-    <cfRule type="expression" dxfId="60" priority="65">
-      <formula>$D64="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B66">
-    <cfRule type="expression" dxfId="59" priority="64">
-      <formula>$D66="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B87">
-    <cfRule type="expression" dxfId="58" priority="59">
-      <formula>$D87="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B93">
-    <cfRule type="expression" dxfId="57" priority="58">
-      <formula>$D93="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B88:B92">
-    <cfRule type="expression" dxfId="56" priority="60">
-      <formula>$D88="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E89:E92">
-    <cfRule type="expression" dxfId="55" priority="57">
-      <formula>$D89="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C60:C63">
-    <cfRule type="cellIs" dxfId="54" priority="55" operator="between">
+  <conditionalFormatting sqref="G138">
+    <cfRule type="expression" dxfId="23" priority="23">
+      <formula>$D138="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25">
+    <cfRule type="expression" dxfId="22" priority="22">
+      <formula>$D25="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B85">
+    <cfRule type="expression" dxfId="21" priority="222">
+      <formula>$D46="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B74">
+    <cfRule type="expression" dxfId="20" priority="21">
+      <formula>$D74="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B75">
+    <cfRule type="expression" dxfId="19" priority="20">
+      <formula>$D75="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C57:C58">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="between">
       <formula>$C$9</formula>
       <formula>$C$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="56" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="lessThanOrEqual">
       <formula>$C$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H60:H63 C60:D63">
-    <cfRule type="expression" dxfId="52" priority="54">
-      <formula>$D60="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F60:F63">
-    <cfRule type="expression" dxfId="51" priority="53">
-      <formula>$D60="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B60:B63">
-    <cfRule type="expression" dxfId="50" priority="52">
-      <formula>$D60="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60:E63">
-    <cfRule type="expression" dxfId="49" priority="51">
-      <formula>$D60="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B109">
-    <cfRule type="expression" dxfId="48" priority="50">
-      <formula>$D109="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B113 B115">
-    <cfRule type="expression" dxfId="47" priority="46">
-      <formula>$D113="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="46" priority="48">
-      <formula>$D14="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B112 B114">
-    <cfRule type="expression" dxfId="45" priority="47">
-      <formula>$D112="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C126">
-    <cfRule type="cellIs" dxfId="44" priority="44" operator="between">
+  <conditionalFormatting sqref="H57:H58 B57:E58">
+    <cfRule type="expression" dxfId="16" priority="17">
+      <formula>$D57="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F57:F58">
+    <cfRule type="expression" dxfId="15" priority="16">
+      <formula>$D57="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G57:G58">
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>$D57="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32">
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>$D32="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63">
+    <cfRule type="expression" dxfId="12" priority="13">
+      <formula>$D63="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42:C43">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="between">
       <formula>$C$9</formula>
       <formula>$C$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="45" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="lessThanOrEqual">
       <formula>$C$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H126 C126:E126">
-    <cfRule type="expression" dxfId="42" priority="43">
-      <formula>$D126="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F126">
-    <cfRule type="expression" dxfId="41" priority="42">
-      <formula>$D126="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C117:C125">
-    <cfRule type="cellIs" dxfId="40" priority="40" operator="between">
+  <conditionalFormatting sqref="B42:H43">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>$D42="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C80:C81">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="between">
       <formula>$C$9</formula>
       <formula>$C$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="41" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="lessThanOrEqual">
       <formula>$C$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C117:E120 C125:E125 C121:D124">
-    <cfRule type="expression" dxfId="38" priority="39">
-      <formula>$D117="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B117:B119">
-    <cfRule type="expression" dxfId="37" priority="36">
-      <formula>$D117="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
-    <cfRule type="expression" dxfId="36" priority="35">
-      <formula>$D125="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B118:B124">
-    <cfRule type="expression" dxfId="35" priority="37">
-      <formula>$D118="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E121:E124">
-    <cfRule type="expression" dxfId="34" priority="34">
-      <formula>$D121="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B128:B131">
-    <cfRule type="expression" dxfId="33" priority="33">
-      <formula>$D128="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B132">
-    <cfRule type="expression" dxfId="32" priority="32">
-      <formula>$D132="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A135:A139">
-    <cfRule type="expression" dxfId="31" priority="31">
-      <formula>$D135="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B135:B140">
-    <cfRule type="expression" dxfId="30" priority="30">
-      <formula>$D135="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B102:B107">
-    <cfRule type="expression" dxfId="29" priority="29">
-      <formula>$D102="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B144">
-    <cfRule type="expression" dxfId="28" priority="28">
-      <formula>$D144="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B145">
-    <cfRule type="expression" dxfId="27" priority="27">
-      <formula>$D145="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="cellIs" dxfId="26" priority="25" operator="between">
+  <conditionalFormatting sqref="B80:H81">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>$D80="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C112:C113">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="between">
       <formula>$C$9</formula>
       <formula>$C$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="lessThanOrEqual">
       <formula>$C$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H25 B25:E25">
-    <cfRule type="expression" dxfId="24" priority="24">
-      <formula>$D25="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
-    <cfRule type="expression" dxfId="23" priority="23">
-      <formula>$D25="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G39:G40 G27:G29 G31:G37 G55:G56 G58:G59 G64 G75:G78 G117:G125 G135:G139 G22:G23">
-    <cfRule type="expression" dxfId="22" priority="22">
-      <formula>$D22="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15:G20 G52 G42:G44 G66:G69">
-    <cfRule type="expression" dxfId="21" priority="21">
-      <formula>$D15="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G45:G49">
-    <cfRule type="expression" dxfId="20" priority="20">
-      <formula>$D45="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G80">
-    <cfRule type="expression" dxfId="19" priority="19">
-      <formula>$D80="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G74">
-    <cfRule type="expression" dxfId="18" priority="18">
-      <formula>$D74="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G72:G73">
-    <cfRule type="expression" dxfId="17" priority="17">
-      <formula>$D72="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G71">
-    <cfRule type="expression" dxfId="16" priority="16">
-      <formula>$D71="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G83:G85 G87:G94 G96:G100">
-    <cfRule type="expression" dxfId="15" priority="15">
-      <formula>$D83="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G109">
-    <cfRule type="expression" dxfId="14" priority="14">
-      <formula>$D109="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G102:G107">
-    <cfRule type="expression" dxfId="13" priority="13">
-      <formula>$D102="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G112:G115 G147 G128:G133">
-    <cfRule type="expression" dxfId="12" priority="12">
+  <conditionalFormatting sqref="B112:H113">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$D112="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G146">
-    <cfRule type="expression" dxfId="11" priority="11">
+  <conditionalFormatting sqref="C146:C147">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="between">
+      <formula>$C$9</formula>
+      <formula>$C$8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThanOrEqual">
+      <formula>$C$8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B146:H147">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$D146="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G145">
-    <cfRule type="expression" dxfId="10" priority="10">
-      <formula>$D145="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G144">
-    <cfRule type="expression" dxfId="9" priority="9">
-      <formula>$D144="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G142">
-    <cfRule type="expression" dxfId="8" priority="8">
-      <formula>$D142="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G141">
-    <cfRule type="expression" dxfId="7" priority="7">
-      <formula>$D141="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G140">
-    <cfRule type="expression" dxfId="6" priority="6">
-      <formula>$D140="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
-    <cfRule type="expression" dxfId="5" priority="5">
-      <formula>$D30="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="4" priority="4">
-      <formula>$D14="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G60:G63">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$D60="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G126">
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>$D126="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$D25="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B73">
-    <cfRule type="expression" dxfId="0" priority="201">
-      <formula>$D43="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D55:D80 D14:D20 D83:D109 D112:D147 D22:D52" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14:D20 D95:D122 D22:D59 D62:D92 D125:D161" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"In progress, complete, NA, -"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5614,7 +6288,7 @@
           <x14:formula1>
             <xm:f>'Instruction on Template use'!$A$8:$A$14</xm:f>
           </x14:formula1>
-          <xm:sqref>E148 E15:E20 E83:E109 E55:E80 E112:E147 E22:E52</xm:sqref>
+          <xm:sqref>E15:E20 E95:E122 E22:E59 E62:E92 E125:E162</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9C3AAABF-7293-45FE-8DF0-C9EF6C012AD2}">
           <x14:formula1>
@@ -5626,7 +6300,7 @@
           <x14:formula1>
             <xm:f>'Instruction on Template use'!$A$17:$A$21</xm:f>
           </x14:formula1>
-          <xm:sqref>F14:F148 G13:G148</xm:sqref>
+          <xm:sqref>F14:F37 G13:G37 F38:G162</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5655,62 +6329,62 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="59" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="59" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="59" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="59" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="59" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -5719,6 +6393,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100034309788D69B64B902AA1812B44CF28" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="979c787a5df8f3284974d7433d5ac674">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="97761a4d-5641-400c-90db-be02f8f4d39c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ee2b82d690626ab69edc8b21da0a9e89" ns2:_="">
     <xsd:import namespace="97761a4d-5641-400c-90db-be02f8f4d39c"/>
@@ -5902,15 +6585,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -5918,6 +6592,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE2E61C7-C446-4493-A453-C94E8505B855}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6085E29D-86EB-44C2-A024-082B36450964}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5935,14 +6617,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE2E61C7-C446-4493-A453-C94E8505B855}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA5CBEDC-8488-4003-9AE7-DFF5FF5B8921}">
   <ds:schemaRefs>
